--- a/Covid-19/Ontario_covid19.xlsx
+++ b/Covid-19/Ontario_covid19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANUP'S PC\Desktop\covid progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986F306-EAA9-4E88-90CF-4CF0DACE71D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F1EC1B-62C8-4B5B-8A08-B589D7ED3FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{19989E70-BC6C-4134-8D86-BBE004C5602A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Daily Numbers" sheetId="2" r:id="rId2"/>
     <sheet name="Graphs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -234,7 +236,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +267,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -882,10 +890,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$76</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -1104,16 +1112,31 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$C$3:$C$76</c:f>
+              <c:f>'Ontario Numbers'!$C$3:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>7953</c:v>
                 </c:pt>
@@ -1332,6 +1355,21 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>35656</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35948</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36060</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36178</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36464</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,10 +1409,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$76</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -1593,16 +1631,31 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$D$3:$D$76</c:f>
+              <c:f>'Ontario Numbers'!$D$3:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>3568</c:v>
                 </c:pt>
@@ -1821,6 +1874,21 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>31083</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31426</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31603</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31805</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32155</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,10 +1928,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$76</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -2082,16 +2150,31 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$E$3:$E$76</c:f>
+              <c:f>'Ontario Numbers'!$E$3:$E$81</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>334</c:v>
                 </c:pt>
@@ -2310,6 +2393,21 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,13 +2470,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -2597,6 +2695,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2606,13 +2719,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$F$3:$F$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$F$3:$F$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>769</c:v>
                       </c:pt>
@@ -2831,6 +2944,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2881,13 +3009,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -3106,6 +3234,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3115,13 +3258,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$G$3:$G$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$G$3:$G$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>255</c:v>
                       </c:pt>
@@ -3340,6 +3483,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>31</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3390,13 +3548,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -3615,6 +3773,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3624,13 +3797,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$H$3:$H$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$H$3:$H$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>199</c:v>
                       </c:pt>
@@ -3849,6 +4022,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>18</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3901,13 +4089,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -4126,6 +4314,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4135,13 +4338,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$I$3:$I$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$I$3:$I$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>113082</c:v>
                       </c:pt>
@@ -4345,6 +4548,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>1503322</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1544417</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>1559529</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>1582361</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>1636171</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1665693</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4397,13 +4615,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -4622,6 +4840,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4631,13 +4864,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$J$3:$J$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$J$3:$J$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>1971</c:v>
                       </c:pt>
@@ -4855,6 +5088,21 @@
                         <c:v>2800</c:v>
                       </c:pt>
                       <c:pt idx="73">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
                         <c:v>2800</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5168,10 +5416,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$76</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -5390,16 +5638,31 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$F$3:$F$76</c:f>
+              <c:f>'Ontario Numbers'!$F$3:$F$81</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>769</c:v>
                 </c:pt>
@@ -5618,6 +5881,21 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5657,10 +5935,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$76</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -5879,16 +6157,31 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$G$3:$G$76</c:f>
+              <c:f>'Ontario Numbers'!$G$3:$G$81</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>255</c:v>
                 </c:pt>
@@ -6107,6 +6400,21 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6146,10 +6454,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$76</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -6368,16 +6676,31 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$H$3:$H$76</c:f>
+              <c:f>'Ontario Numbers'!$H$3:$H$81</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>199</c:v>
                 </c:pt>
@@ -6596,6 +6919,21 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6637,10 +6975,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$76</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -6859,16 +7197,31 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$J$3:$J$76</c:f>
+              <c:f>'Ontario Numbers'!$J$3:$J$81</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>1971</c:v>
                 </c:pt>
@@ -7086,6 +7439,21 @@
                   <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2800</c:v>
                 </c:pt>
               </c:numCache>
@@ -7149,13 +7517,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -7374,6 +7742,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7383,13 +7766,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$C$3:$C$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$C$3:$C$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>7953</c:v>
                       </c:pt>
@@ -7608,6 +7991,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>35656</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>35948</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>36060</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>36178</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>36464</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>36594</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7658,13 +8056,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -7883,6 +8281,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7892,13 +8305,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$D$3:$D$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$D$3:$D$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>3568</c:v>
                       </c:pt>
@@ -8117,6 +8530,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>31083</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>31426</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>31603</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>31805</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>32155</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>32422</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8167,13 +8595,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -8392,6 +8820,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8401,13 +8844,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$E$3:$E$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$E$3:$E$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>334</c:v>
                       </c:pt>
@@ -8626,6 +9069,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>2687</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2689</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2691</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2700</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2710</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>2716</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8678,13 +9136,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -8903,6 +9361,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44023</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8912,13 +9385,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$I$3:$I$76</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$I$3:$I$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="74"/>
+                      <c:ptCount val="79"/>
                       <c:pt idx="1">
                         <c:v>113082</c:v>
                       </c:pt>
@@ -9122,6 +9595,21 @@
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>1503322</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1544417</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>1559529</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>1582361</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>1636171</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1665693</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10520,8 +11008,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40A14897-AC0A-4CAE-83F3-E086FB56E024}" name="Table1" displayName="Table1" ref="B2:J76" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="B2:J76" xr:uid="{88D94B5C-5E47-4145-8471-C685A1750CAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40A14897-AC0A-4CAE-83F3-E086FB56E024}" name="Table1" displayName="Table1" ref="B2:J81" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="B2:J81" xr:uid="{88D94B5C-5E47-4145-8471-C685A1750CAA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{876FA1C1-3C5A-4853-B8B9-67A3AC516FD8}" name="Date" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{F3EBB786-706B-4DCB-8ED7-CB8D6D06132C}" name="Total number of cases" dataDxfId="20" dataCellStyle="Comma"/>
@@ -10538,8 +11026,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{601C3399-CC0B-4AF4-8FE1-F17B69DA4883}" name="Table2" displayName="Table2" ref="B2:J74" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="B2:J74" xr:uid="{AFF5FD80-35B1-4B7C-9EC7-94A96BA23D7C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{601C3399-CC0B-4AF4-8FE1-F17B69DA4883}" name="Table2" displayName="Table2" ref="B2:J79" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="B2:J79" xr:uid="{AFF5FD80-35B1-4B7C-9EC7-94A96BA23D7C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0BD484D2-643D-4659-B7E2-46E12BA0EB9C}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{1A3AA545-D795-4092-BA82-48BC6CEAAA56}" name="Number of cases" dataDxfId="7" dataCellStyle="Comma">
@@ -10866,10 +11354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB3FAF-8F52-48D7-8B7E-9F3560C7F935}">
-  <dimension ref="B2:L76"/>
+  <dimension ref="B2:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13029,6 +13517,151 @@
         <v>2800</v>
       </c>
     </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
+        <v>44018</v>
+      </c>
+      <c r="C77" s="3">
+        <v>35948</v>
+      </c>
+      <c r="D77" s="3">
+        <v>31426</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2689</v>
+      </c>
+      <c r="F77" s="3">
+        <v>118</v>
+      </c>
+      <c r="G77" s="3">
+        <v>36</v>
+      </c>
+      <c r="H77" s="3">
+        <v>21</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1544417</v>
+      </c>
+      <c r="J77" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>44019</v>
+      </c>
+      <c r="C78" s="3">
+        <v>36060</v>
+      </c>
+      <c r="D78" s="3">
+        <v>31603</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2691</v>
+      </c>
+      <c r="F78" s="3">
+        <v>131</v>
+      </c>
+      <c r="G78" s="3">
+        <v>34</v>
+      </c>
+      <c r="H78" s="3">
+        <v>24</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1559529</v>
+      </c>
+      <c r="J78" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>44020</v>
+      </c>
+      <c r="C79" s="3">
+        <v>36178</v>
+      </c>
+      <c r="D79" s="3">
+        <v>31805</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F79" s="3">
+        <v>123</v>
+      </c>
+      <c r="G79" s="3">
+        <v>35</v>
+      </c>
+      <c r="H79" s="3">
+        <v>26</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1582361</v>
+      </c>
+      <c r="J79" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>44022</v>
+      </c>
+      <c r="C80" s="3">
+        <v>36464</v>
+      </c>
+      <c r="D80" s="3">
+        <v>32155</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2710</v>
+      </c>
+      <c r="F80" s="3">
+        <v>117</v>
+      </c>
+      <c r="G80" s="3">
+        <v>34</v>
+      </c>
+      <c r="H80" s="3">
+        <v>24</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1636171</v>
+      </c>
+      <c r="J80" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>44023</v>
+      </c>
+      <c r="C81" s="3">
+        <v>36594</v>
+      </c>
+      <c r="D81" s="3">
+        <v>32422</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2716</v>
+      </c>
+      <c r="F81" s="3">
+        <v>128</v>
+      </c>
+      <c r="G81" s="3">
+        <v>31</v>
+      </c>
+      <c r="H81" s="3">
+        <v>18</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1665693</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2800</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1" xr:uid="{03684D24-3A5B-4BDF-B28A-0D77897F49B5}"/>
@@ -13042,10 +13675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4C6369-9339-4DBA-B4CE-78ECF208F7EA}">
-  <dimension ref="B2:J77"/>
+  <dimension ref="B2:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15478,14 +16111,186 @@
         <v>21425</v>
       </c>
     </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
+        <v>44018</v>
+      </c>
+      <c r="C75" s="8">
+        <f>'Ontario Numbers'!C77-'Ontario Numbers'!C76</f>
+        <v>292</v>
+      </c>
+      <c r="D75" s="8">
+        <f>'Ontario Numbers'!D77-'Ontario Numbers'!D76</f>
+        <v>343</v>
+      </c>
+      <c r="E75" s="8">
+        <f>'Ontario Numbers'!E77-'Ontario Numbers'!E76</f>
+        <v>2</v>
+      </c>
+      <c r="F75" s="8">
+        <f>'Ontario Numbers'!F77-'Ontario Numbers'!F76</f>
+        <v>-32</v>
+      </c>
+      <c r="G75" s="8">
+        <f>'Ontario Numbers'!G77-'Ontario Numbers'!G76</f>
+        <v>-3</v>
+      </c>
+      <c r="H75" s="8">
+        <f>'Ontario Numbers'!H77-'Ontario Numbers'!H76</f>
+        <v>-5</v>
+      </c>
+      <c r="I75" s="8">
+        <f>'Ontario Numbers'!I77-'Ontario Numbers'!I76</f>
+        <v>41095</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
+        <v>44019</v>
+      </c>
+      <c r="C76" s="8">
+        <f>'Ontario Numbers'!C78-'Ontario Numbers'!C77</f>
+        <v>112</v>
+      </c>
+      <c r="D76" s="8">
+        <f>'Ontario Numbers'!D78-'Ontario Numbers'!D77</f>
+        <v>177</v>
+      </c>
+      <c r="E76" s="8">
+        <f>'Ontario Numbers'!E78-'Ontario Numbers'!E77</f>
+        <v>2</v>
+      </c>
+      <c r="F76" s="8">
+        <f>'Ontario Numbers'!F78-'Ontario Numbers'!F77</f>
+        <v>13</v>
+      </c>
+      <c r="G76" s="8">
+        <f>'Ontario Numbers'!G78-'Ontario Numbers'!G77</f>
+        <v>-2</v>
+      </c>
+      <c r="H76" s="8">
+        <f>'Ontario Numbers'!H78-'Ontario Numbers'!H77</f>
+        <v>3</v>
+      </c>
+      <c r="I76" s="8">
+        <f>'Ontario Numbers'!I78-'Ontario Numbers'!I77</f>
+        <v>15112</v>
+      </c>
+    </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I77" s="7" t="s">
+      <c r="B77" s="2">
+        <v>44020</v>
+      </c>
+      <c r="C77" s="8">
+        <f>'Ontario Numbers'!C79-'Ontario Numbers'!C78</f>
+        <v>118</v>
+      </c>
+      <c r="D77" s="8">
+        <f>'Ontario Numbers'!D79-'Ontario Numbers'!D78</f>
+        <v>202</v>
+      </c>
+      <c r="E77" s="8">
+        <f>'Ontario Numbers'!E79-'Ontario Numbers'!E78</f>
+        <v>9</v>
+      </c>
+      <c r="F77" s="8">
+        <f>'Ontario Numbers'!F79-'Ontario Numbers'!F78</f>
+        <v>-8</v>
+      </c>
+      <c r="G77" s="8">
+        <f>'Ontario Numbers'!G79-'Ontario Numbers'!G78</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="8">
+        <f>'Ontario Numbers'!H79-'Ontario Numbers'!H78</f>
+        <v>2</v>
+      </c>
+      <c r="I77" s="8">
+        <f>'Ontario Numbers'!I79-'Ontario Numbers'!I78</f>
+        <v>22832</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="12">
+        <v>44022</v>
+      </c>
+      <c r="C78" s="8">
+        <f>'Ontario Numbers'!C80-'Ontario Numbers'!C79</f>
+        <v>286</v>
+      </c>
+      <c r="D78" s="8">
+        <f>'Ontario Numbers'!D80-'Ontario Numbers'!D79</f>
+        <v>350</v>
+      </c>
+      <c r="E78" s="8">
+        <f>'Ontario Numbers'!E80-'Ontario Numbers'!E79</f>
+        <v>10</v>
+      </c>
+      <c r="F78" s="8">
+        <f>'Ontario Numbers'!F80-'Ontario Numbers'!F79</f>
+        <v>-6</v>
+      </c>
+      <c r="G78" s="8">
+        <f>'Ontario Numbers'!G80-'Ontario Numbers'!G79</f>
+        <v>-1</v>
+      </c>
+      <c r="H78" s="8">
+        <f>'Ontario Numbers'!H80-'Ontario Numbers'!H79</f>
+        <v>-2</v>
+      </c>
+      <c r="I78" s="8">
+        <f>'Ontario Numbers'!I80-'Ontario Numbers'!I79</f>
+        <v>53810</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="12">
+        <v>44023</v>
+      </c>
+      <c r="C79" s="8">
+        <f>'Ontario Numbers'!C81-'Ontario Numbers'!C80</f>
+        <v>130</v>
+      </c>
+      <c r="D79" s="8">
+        <f>'Ontario Numbers'!D81-'Ontario Numbers'!D80</f>
+        <v>267</v>
+      </c>
+      <c r="E79" s="8">
+        <f>'Ontario Numbers'!E81-'Ontario Numbers'!E80</f>
+        <v>6</v>
+      </c>
+      <c r="F79" s="8">
+        <f>'Ontario Numbers'!F81-'Ontario Numbers'!F80</f>
+        <v>11</v>
+      </c>
+      <c r="G79" s="8">
+        <f>'Ontario Numbers'!G81-'Ontario Numbers'!G80</f>
+        <v>-3</v>
+      </c>
+      <c r="H79" s="8">
+        <f>'Ontario Numbers'!H81-'Ontario Numbers'!H80</f>
+        <v>-6</v>
+      </c>
+      <c r="I79" s="8">
+        <f>'Ontario Numbers'!I81-'Ontario Numbers'!I80</f>
+        <v>29522</v>
+      </c>
+      <c r="J79" s="13"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="7" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C75:C1048576 C1:C2">
+  <conditionalFormatting sqref="C1:C2 C79:C1048576 D79:I79">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -15497,7 +16302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D1048576 D1:D2">
+  <conditionalFormatting sqref="D80:D1048576 D1:D2">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -15509,7 +16314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E1048576 E1:E2">
+  <conditionalFormatting sqref="E80:E1048576 E1:E2">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -15521,7 +16326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:F1048576 F1:F2">
+  <conditionalFormatting sqref="F80:F1048576 F1:F2">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -15533,7 +16338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:G1048576 G1:G2">
+  <conditionalFormatting sqref="G80:G1048576 G1:G2">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -15545,7 +16350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H1048576 H1:H2">
+  <conditionalFormatting sqref="H80:H1048576 H1:H2">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -15557,7 +16362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H1048576 H1:H2">
+  <conditionalFormatting sqref="H80:H1048576 H1:H2">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -15579,7 +16384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:G1048576">
+  <conditionalFormatting sqref="G80:G1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -15591,7 +16396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:F1048576">
+  <conditionalFormatting sqref="F80:F1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -15603,7 +16408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E1048576">
+  <conditionalFormatting sqref="E80:E1048576">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -15615,7 +16420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D1048576 D1:D2">
+  <conditionalFormatting sqref="D80:D1048576 D1:D2">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -15627,7 +16432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C1048576">
+  <conditionalFormatting sqref="C79:C1048576 D79:I79">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -15639,7 +16444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:I1048576 I1:I2">
+  <conditionalFormatting sqref="I80:I1048576 I1:I2">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -15651,7 +16456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C26 C28:C36 C40:C48 C50:C51 C53:C58 C61:C71 C73:C1048576 D73:I74">
+  <conditionalFormatting sqref="C1:C26 C28:C36 C40:C48 C50:C51 C53:C58 C61:C71 C73:I74 C76:I77 D79:I79 C79:C1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -15663,7 +16468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D26 D28:D36 D40:D48 D50:D51 D53:D58 D61:D71 D75:D1048576">
+  <conditionalFormatting sqref="D80:D1048576 D1:D26 D28:D36 D40:D48 D50:D51 D53:D58 D61:D71">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -15675,7 +16480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E26 E28:E36 E40:E48 E50:E51 E53:E58 E61:E71 E75:E1048576">
+  <conditionalFormatting sqref="E80:E1048576 E1:E26 E28:E36 E40:E48 E50:E51 E53:E58 E61:E71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15687,7 +16492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F26 F28:F36 F40:F48 F50:F51 F53:F58 F61:F71 F75:F1048576">
+  <conditionalFormatting sqref="F80:F1048576 F1:F26 F28:F36 F40:F48 F50:F51 F53:F58 F61:F71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -15699,7 +16504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G26 G28:G36 G40:G48 G50:G51 G53:G58 G61:G71 G75:G1048576">
+  <conditionalFormatting sqref="G80:G1048576 G1:G26 G28:G36 G40:G48 G50:G51 G53:G58 G61:G71">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -15711,7 +16516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H26 H28:H36 H40:H48 H50:H51 H53:H58 H61:H71 H75:H1048576">
+  <conditionalFormatting sqref="H80:H1048576 H1:H26 H28:H36 H40:H48 H50:H51 H53:H58 H61:H71">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15723,7 +16528,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I26 I28:I36 I40:I48 I50:I51 I53:I58 I61:I71 I75:I1048576">
+  <conditionalFormatting sqref="I80:I1048576 I1:I26 I28:I36 I40:I48 I50:I51 I53:I58 I61:I71">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15747,7 +16552,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Covid-19/Ontario_covid19.xlsx
+++ b/Covid-19/Ontario_covid19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANUP'S PC\Desktop\covid progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3A809-3C48-412C-843C-34448C59DFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977612D2-A7E8-404B-8BD8-178F72A1E925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{19989E70-BC6C-4134-8D86-BBE004C5602A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Test Positivity Rate</t>
+  </si>
+  <si>
+    <t>over 2 days due to civic holiday</t>
+  </si>
+  <si>
+    <t>number over 3 days</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -230,13 +236,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +294,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -936,10 +954,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -1218,16 +1236,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$C$3:$C$96</c:f>
+              <c:f>'Ontario Numbers'!$C$3:$C$128</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>7953</c:v>
                 </c:pt>
@@ -1506,6 +1620,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>38680</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>38799</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38910</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38986</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>39075</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>39333</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39449</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>39628</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>39714</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>39809</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>39897</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>39967</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>40046</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40194</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40367</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40459</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40475</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>40870</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40792</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41048</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41179</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41287</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41402</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41507</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41607</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41695</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41813</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41935</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>42195</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,10 +1755,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -1827,16 +2037,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$D$3:$D$96</c:f>
+              <c:f>'Ontario Numbers'!$D$3:$D$128</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>3568</c:v>
                 </c:pt>
@@ -2115,6 +2421,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>34359</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34461</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>34567</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>34741</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>34906</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35074</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35237</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35359</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35601</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35747</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35906</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>36024</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>36131</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>36279</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>36381</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36456</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36689</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36772</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>37036</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37126</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>37215</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37921</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>37397</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>37487</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>37595</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>37673</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>37748</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>37863</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>37940</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>38023</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>38126</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>38204</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>38277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,10 +2556,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -2436,16 +2838,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$E$3:$E$96</c:f>
+              <c:f>'Ontario Numbers'!$E$3:$E$128</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>334</c:v>
                 </c:pt>
@@ -2724,6 +3222,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2763</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2764</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2768</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2772</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2777</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2778</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2784</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2786</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2786</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2786</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2787</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2793</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2792</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2793</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2796</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2797</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2797</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2798</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2803</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2809</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2809</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,13 +3380,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -3071,6 +3665,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3080,13 +3770,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$F$3:$F$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$F$3:$F$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>769</c:v>
                       </c:pt>
@@ -3365,6 +4055,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>49</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3415,13 +4201,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -3700,6 +4486,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3709,13 +4591,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$G$3:$G$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$G$3:$G$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>255</c:v>
                       </c:pt>
@@ -3994,6 +4876,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>18</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4044,13 +5022,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -4329,6 +5307,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4338,13 +5412,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$H$3:$H$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$H$3:$H$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>199</c:v>
                       </c:pt>
@@ -4623,6 +5697,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4675,13 +5845,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -4960,6 +6130,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4969,13 +6235,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$I$3:$I$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$I$3:$I$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>113082</c:v>
                       </c:pt>
@@ -5239,6 +6505,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>2044957</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>2069621</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>2086955</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>2114263</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>2141939</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>2171972</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>2205254</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>2235697</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>2277887</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>2295116</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>2321297</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>2346433</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>2372441</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>2400212</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>2422487</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>2444068</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>2498266</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>2528403</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>2608219</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>2631286</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>2656928</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>2682845</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>2710918</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>2739574</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>2762958</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>2781748</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2801761</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>2823721</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2852346</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>2884169</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2916275</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>2941245</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>2966343</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5291,13 +6653,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -5576,6 +6938,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5585,13 +7043,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$J$3:$J$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$J$3:$J$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>44.863573494278889</c:v>
                       </c:pt>
@@ -5870,6 +7328,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>88.82885211995864</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>88.819299466481098</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>88.838344898483683</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>89.111475914430827</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>89.330774152271275</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>89.453951898798749</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>89.586352426715479</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>89.632183325306087</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>89.837993338043816</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>90.011079216397235</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>90.19568439297646</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>90.292503195728997</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>90.402081717416877</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>90.593317684662637</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>90.587883767834469</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>90.700104493207945</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>90.888597121411053</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>90.887070861860153</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>91.503397158739958</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>90.839246390995839</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>91.231123749754843</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>92.382089261352561</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>90.815707035139269</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>90.796134376438104</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>90.804792039031938</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>90.763003830679168</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>90.725118369505125</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>90.809449574289474</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>90.737330495300512</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>90.671276976272807</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>90.59715324477817</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>90.541533357032819</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>90.470112741969785</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5922,13 +7476,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -6207,6 +7761,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6216,13 +7866,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$K$3:$K$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$K$3:$K$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>4.199673079341129</c:v>
                       </c:pt>
@@ -6501,6 +8151,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>7.1432264736297828</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>7.1238949457460246</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>7.113852480082242</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>7.1025496332016615</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>7.0940499040307099</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>7.0774567063684364</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>7.0602293239773211</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>7.0420035995842731</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>7.0202886847683459</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>7.0050863675278237</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>6.9908814589665651</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>6.9754618141714921</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>6.9657467410613751</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>6.9569994506317734</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>6.9370782600034859</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>6.9313827934517587</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>6.9041543835311021</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>6.8909266170691321</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>6.8906732550957379</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>6.8338634695375582</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>6.8444793096685625</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>6.8042291950886762</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>6.7898686223560558</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>6.7745295129217427</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>6.7557122844307038</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>6.7410316332184932</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>6.7296368399548152</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>6.7202302434344645</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>6.7036567574677726</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>6.6984619053296761</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>6.6749043556780645</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>6.6595568195283796</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>6.6439764589094521</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6553,13 +8299,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -6838,6 +8584,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6847,13 +8689,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$L$3:$L$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$L$3:$L$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>7.0329495410410141</c:v>
                       </c:pt>
@@ -7117,6 +8959,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>1.8914823147870592</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>1.8746910666252421</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>1.8644388594866685</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>1.8439522424599022</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>1.8242816438750122</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>1.8052258500569991</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>1.7836040655634224</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1.7645056552833411</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>1.7396824337642736</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>1.7303700553697503</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>1.7149464286560487</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>1.7003255579852483</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>1.6846362038086511</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>1.6684359548239904</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>1.6578417139080623</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>1.6445532612022251</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>1.6158007193789612</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>1.6001800345910047</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>1.5518252109964692</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>1.5532329058870833</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>1.5353069409483433</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>1.5300175746269353</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>1.5190057390153446</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>1.5070591267109412</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>1.4984664985859357</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>1.4921193436644873</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>1.4850303077243205</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>1.4765977233586463</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>1.4659161265849234</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>1.4539716639350884</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>1.4430394938748918</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>1.4345965738998281</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>1.4263016785314444</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7429,10 +9367,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -7711,16 +9649,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$F$3:$F$96</c:f>
+              <c:f>'Ontario Numbers'!$F$3:$F$128</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>769</c:v>
                 </c:pt>
@@ -7999,6 +10033,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8038,10 +10168,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -8320,16 +10450,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$G$3:$G$96</c:f>
+              <c:f>'Ontario Numbers'!$G$3:$G$128</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>255</c:v>
                 </c:pt>
@@ -8608,6 +10834,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8647,10 +10969,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -8929,16 +11251,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$H$3:$H$96</c:f>
+              <c:f>'Ontario Numbers'!$H$3:$H$128</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>199</c:v>
                 </c:pt>
@@ -9217,6 +11635,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9279,13 +11793,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -9564,6 +12078,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9573,13 +12183,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$C$3:$C$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$C$3:$C$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>7953</c:v>
                       </c:pt>
@@ -9858,6 +12468,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>38680</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>38799</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>38910</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>38986</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>39075</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>39209</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>39333</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>39449</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>39628</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>39714</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>39809</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>39897</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>39967</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>40046</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>40161</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>40194</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>40367</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>40459</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>40475</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>40870</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>40792</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>41048</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>41179</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>41287</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>41402</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>41507</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>41607</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>41695</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>41813</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>41935</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>42083</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>42195</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>42309</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9908,13 +12614,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -10193,6 +12899,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10202,13 +13004,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$D$3:$D$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$D$3:$D$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>3568</c:v>
                       </c:pt>
@@ -10487,6 +13289,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>34359</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>34461</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>34567</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>34741</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>34906</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>35074</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>35237</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>35359</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>35601</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>35747</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>35906</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>36024</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>36131</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>36279</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>36381</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>36456</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>36689</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>36772</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>37036</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>37126</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>37215</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>37921</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>37397</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>37487</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>37595</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>37673</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>37748</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>37863</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>37940</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>38023</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>38126</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>38204</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>38277</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10537,13 +13435,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -10822,6 +13720,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10831,13 +13825,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$E$3:$E$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$E$3:$E$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>334</c:v>
                       </c:pt>
@@ -11116,6 +14110,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>2763</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>2764</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>2768</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>2769</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>2772</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>2775</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>2777</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>2778</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>2782</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>2782</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>2783</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>2783</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>2784</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>2786</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>2786</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>2786</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>2787</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>2788</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>2789</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>2793</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>2792</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>2793</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>2796</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>2797</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>2797</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>2798</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>2802</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2803</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>2809</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2809</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>2810</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>2811</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11168,13 +14258,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -11453,6 +14543,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11462,13 +14648,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$I$3:$I$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$I$3:$I$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>113082</c:v>
                       </c:pt>
@@ -11732,6 +14918,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>2044957</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>2069621</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>2086955</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>2114263</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>2141939</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>2171972</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>2205254</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>2235697</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>2277887</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>2295116</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>2321297</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>2346433</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>2372441</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>2400212</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>2422487</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>2444068</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>2498266</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>2528403</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>2608219</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>2631286</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>2656928</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>2682845</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>2710918</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>2739574</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>2762958</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>2781748</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2801761</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>2823721</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2852346</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>2884169</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2916275</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>2941245</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>2966343</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11784,13 +15066,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -12069,6 +15351,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12078,13 +15456,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$J$3:$J$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$J$3:$J$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>44.863573494278889</c:v>
                       </c:pt>
@@ -12363,6 +15741,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>88.82885211995864</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>88.819299466481098</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>88.838344898483683</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>89.111475914430827</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>89.330774152271275</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>89.453951898798749</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>89.586352426715479</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>89.632183325306087</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>89.837993338043816</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>90.011079216397235</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>90.19568439297646</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>90.292503195728997</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>90.402081717416877</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>90.593317684662637</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>90.587883767834469</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>90.700104493207945</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>90.888597121411053</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>90.887070861860153</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>91.503397158739958</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>90.839246390995839</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>91.231123749754843</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>92.382089261352561</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>90.815707035139269</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>90.796134376438104</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>90.804792039031938</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>90.763003830679168</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>90.725118369505125</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>90.809449574289474</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>90.737330495300512</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>90.671276976272807</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>90.59715324477817</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>90.541533357032819</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>90.470112741969785</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12415,13 +15889,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -12700,6 +16174,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12709,13 +16279,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$K$3:$K$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$K$3:$K$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>4.199673079341129</c:v>
                       </c:pt>
@@ -12994,6 +16564,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>7.1432264736297828</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>7.1238949457460246</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>7.113852480082242</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>7.1025496332016615</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>7.0940499040307099</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>7.0774567063684364</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>7.0602293239773211</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>7.0420035995842731</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>7.0202886847683459</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>7.0050863675278237</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>6.9908814589665651</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>6.9754618141714921</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>6.9657467410613751</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>6.9569994506317734</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>6.9370782600034859</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>6.9313827934517587</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>6.9041543835311021</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>6.8909266170691321</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>6.8906732550957379</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>6.8338634695375582</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>6.8444793096685625</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>6.8042291950886762</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>6.7898686223560558</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>6.7745295129217427</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>6.7557122844307038</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>6.7410316332184932</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>6.7296368399548152</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>6.7202302434344645</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>6.7036567574677726</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>6.6984619053296761</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>6.6749043556780645</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>6.6595568195283796</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>6.6439764589094521</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13046,13 +16712,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -13331,6 +16997,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13340,13 +17102,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$L$3:$L$96</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$L$3:$L$128</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="94"/>
+                      <c:ptCount val="126"/>
                       <c:pt idx="1">
                         <c:v>7.0329495410410141</c:v>
                       </c:pt>
@@ -13610,6 +17372,102 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>1.8914823147870592</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>1.8746910666252421</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>1.8644388594866685</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>1.8439522424599022</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>1.8242816438750122</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>1.8052258500569991</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>1.7836040655634224</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1.7645056552833411</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>1.7396824337642736</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>1.7303700553697503</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>1.7149464286560487</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>1.7003255579852483</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>1.6846362038086511</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>1.6684359548239904</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>1.6578417139080623</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>1.6445532612022251</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>1.6158007193789612</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>1.6001800345910047</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>1.5518252109964692</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>1.5532329058870833</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>1.5353069409483433</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>1.5300175746269353</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>1.5190057390153446</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>1.5070591267109412</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>1.4984664985859357</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>1.4921193436644873</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>1.4850303077243205</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>1.4765977233586463</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>1.4659161265849234</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>1.4539716639350884</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>1.4430394938748918</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>1.4345965738998281</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>1.4263016785314444</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13922,10 +17780,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -14204,16 +18062,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$J$3:$J$96</c:f>
+              <c:f>'Ontario Numbers'!$J$3:$J$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>44.863573494278889</c:v>
                 </c:pt>
@@ -14492,6 +18446,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>88.82885211995864</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>88.819299466481098</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>88.838344898483683</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>89.111475914430827</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.330774152271275</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>89.453951898798749</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89.586352426715479</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>89.632183325306087</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>89.837993338043816</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90.011079216397235</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.19568439297646</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>90.292503195728997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>90.402081717416877</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>90.593317684662637</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>90.587883767834469</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>90.700104493207945</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>90.888597121411053</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>90.887070861860153</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>91.503397158739958</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>90.839246390995839</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>91.231123749754843</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>92.382089261352561</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>90.815707035139269</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>90.796134376438104</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>90.804792039031938</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>90.763003830679168</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>90.725118369505125</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>90.809449574289474</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>90.737330495300512</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>90.671276976272807</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>90.59715324477817</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>90.541533357032819</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>90.470112741969785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14531,10 +18581,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -14813,16 +18863,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$K$3:$K$96</c:f>
+              <c:f>'Ontario Numbers'!$K$3:$K$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>4.199673079341129</c:v>
                 </c:pt>
@@ -15101,6 +19247,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>7.1432264736297828</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.1238949457460246</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.113852480082242</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.1025496332016615</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.0940499040307099</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.0774567063684364</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.0602293239773211</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.0420035995842731</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.0202886847683459</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.0050863675278237</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.9908814589665651</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.9754618141714921</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.9657467410613751</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.9569994506317734</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.9370782600034859</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.9313827934517587</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.9041543835311021</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.8909266170691321</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.8906732550957379</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.8338634695375582</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.8444793096685625</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.8042291950886762</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.7898686223560558</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.7745295129217427</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.7557122844307038</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.7410316332184932</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.7296368399548152</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.7202302434344645</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.7036567574677726</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.6984619053296761</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.6749043556780645</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.6595568195283796</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.6439764589094521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15409,10 +19651,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$96</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -15691,16 +19933,112 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$L$3:$L$96</c:f>
+              <c:f>'Ontario Numbers'!$L$3:$L$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="1">
                   <c:v>7.0329495410410141</c:v>
                 </c:pt>
@@ -15964,6 +20302,102 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>1.8914823147870592</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.8746910666252421</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8644388594866685</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8439522424599022</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8242816438750122</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8052258500569991</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7836040655634224</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.7645056552833411</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7396824337642736</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7303700553697503</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.7149464286560487</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.7003255579852483</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.6846362038086511</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6684359548239904</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.6578417139080623</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6445532612022251</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6158007193789612</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6001800345910047</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5518252109964692</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.5532329058870833</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.5353069409483433</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5300175746269353</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5190057390153446</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.5070591267109412</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4984664985859357</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4921193436644873</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4850303077243205</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4765977233586463</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4659161265849234</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.4539716639350884</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4430394938748918</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4345965738998281</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.4263016785314444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18520,8 +22954,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40A14897-AC0A-4CAE-83F3-E086FB56E024}" name="Table1" displayName="Table1" ref="B2:L96" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="B2:L96" xr:uid="{88D94B5C-5E47-4145-8471-C685A1750CAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40A14897-AC0A-4CAE-83F3-E086FB56E024}" name="Table1" displayName="Table1" ref="B2:L128" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="B2:L128" xr:uid="{88D94B5C-5E47-4145-8471-C685A1750CAA}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{876FA1C1-3C5A-4853-B8B9-67A3AC516FD8}" name="Date" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{F3EBB786-706B-4DCB-8ED7-CB8D6D06132C}" name="Total number of cases" dataDxfId="22" dataCellStyle="Comma"/>
@@ -18546,8 +22980,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{601C3399-CC0B-4AF4-8FE1-F17B69DA4883}" name="Table2" displayName="Table2" ref="B2:J94" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="B2:J94" xr:uid="{AFF5FD80-35B1-4B7C-9EC7-94A96BA23D7C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{601C3399-CC0B-4AF4-8FE1-F17B69DA4883}" name="Table2" displayName="Table2" ref="B2:J126" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="B2:J126" xr:uid="{AFF5FD80-35B1-4B7C-9EC7-94A96BA23D7C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0BD484D2-643D-4659-B7E2-46E12BA0EB9C}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{1A3AA545-D795-4092-BA82-48BC6CEAAA56}" name="Number of cases" dataDxfId="7" dataCellStyle="Comma">
@@ -18874,10 +23308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB3FAF-8F52-48D7-8B7E-9F3560C7F935}">
-  <dimension ref="B2:M96"/>
+  <dimension ref="B2:M128"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22443,6 +26877,1222 @@
         <v>1.8914823147870592</v>
       </c>
     </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <v>44039</v>
+      </c>
+      <c r="C97" s="3">
+        <v>38799</v>
+      </c>
+      <c r="D97" s="3">
+        <v>34461</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2764</v>
+      </c>
+      <c r="F97" s="3">
+        <v>82</v>
+      </c>
+      <c r="G97" s="3">
+        <v>30</v>
+      </c>
+      <c r="H97" s="3">
+        <v>18</v>
+      </c>
+      <c r="I97" s="3">
+        <v>2069621</v>
+      </c>
+      <c r="J97" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>88.819299466481098</v>
+      </c>
+      <c r="K97" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.1238949457460246</v>
+      </c>
+      <c r="L97" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.8746910666252421</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <v>44040</v>
+      </c>
+      <c r="C98" s="3">
+        <v>38910</v>
+      </c>
+      <c r="D98" s="3">
+        <v>34567</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2768</v>
+      </c>
+      <c r="F98" s="3">
+        <v>96</v>
+      </c>
+      <c r="G98" s="3">
+        <v>31</v>
+      </c>
+      <c r="H98" s="3">
+        <v>18</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2086955</v>
+      </c>
+      <c r="J98" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>88.838344898483683</v>
+      </c>
+      <c r="K98" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.113852480082242</v>
+      </c>
+      <c r="L98" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.8644388594866685</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
+        <v>44041</v>
+      </c>
+      <c r="C99" s="3">
+        <v>38986</v>
+      </c>
+      <c r="D99" s="3">
+        <v>34741</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2769</v>
+      </c>
+      <c r="F99" s="3">
+        <v>91</v>
+      </c>
+      <c r="G99" s="3">
+        <v>28</v>
+      </c>
+      <c r="H99" s="3">
+        <v>17</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2114263</v>
+      </c>
+      <c r="J99" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.111475914430827</v>
+      </c>
+      <c r="K99" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.1025496332016615</v>
+      </c>
+      <c r="L99" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.8439522424599022</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100" s="2">
+        <v>44042</v>
+      </c>
+      <c r="C100" s="3">
+        <v>39075</v>
+      </c>
+      <c r="D100" s="3">
+        <v>34906</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2772</v>
+      </c>
+      <c r="F100" s="3">
+        <v>84</v>
+      </c>
+      <c r="G100" s="3">
+        <v>27</v>
+      </c>
+      <c r="H100" s="3">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2141939</v>
+      </c>
+      <c r="J100" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.330774152271275</v>
+      </c>
+      <c r="K100" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.0940499040307099</v>
+      </c>
+      <c r="L100" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.8242816438750122</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>44043</v>
+      </c>
+      <c r="C101" s="3">
+        <v>39209</v>
+      </c>
+      <c r="D101" s="3">
+        <v>35074</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2775</v>
+      </c>
+      <c r="F101" s="3">
+        <v>78</v>
+      </c>
+      <c r="G101" s="3">
+        <v>29</v>
+      </c>
+      <c r="H101" s="3">
+        <v>15</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2171972</v>
+      </c>
+      <c r="J101" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.453951898798749</v>
+      </c>
+      <c r="K101" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.0774567063684364</v>
+      </c>
+      <c r="L101" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.8052258500569991</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
+        <v>44044</v>
+      </c>
+      <c r="C102" s="3">
+        <v>39333</v>
+      </c>
+      <c r="D102" s="3">
+        <v>35237</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2777</v>
+      </c>
+      <c r="F102" s="3">
+        <v>73</v>
+      </c>
+      <c r="G102" s="3">
+        <v>27</v>
+      </c>
+      <c r="H102" s="3">
+        <v>12</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2205254</v>
+      </c>
+      <c r="J102" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.586352426715479</v>
+      </c>
+      <c r="K102" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.0602293239773211</v>
+      </c>
+      <c r="L102" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.7836040655634224</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B103" s="2">
+        <v>44045</v>
+      </c>
+      <c r="C103" s="3">
+        <v>39449</v>
+      </c>
+      <c r="D103" s="3">
+        <v>35359</v>
+      </c>
+      <c r="E103" s="3">
+        <v>2778</v>
+      </c>
+      <c r="F103" s="3">
+        <v>72</v>
+      </c>
+      <c r="G103" s="3">
+        <v>26</v>
+      </c>
+      <c r="H103" s="3">
+        <v>14</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2235697</v>
+      </c>
+      <c r="J103" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.632183325306087</v>
+      </c>
+      <c r="K103" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.0420035995842731</v>
+      </c>
+      <c r="L103" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.7645056552833411</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B104" s="2">
+        <v>44047</v>
+      </c>
+      <c r="C104" s="3">
+        <v>39628</v>
+      </c>
+      <c r="D104" s="3">
+        <v>35601</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2782</v>
+      </c>
+      <c r="F104" s="3">
+        <v>78</v>
+      </c>
+      <c r="G104" s="3">
+        <v>28</v>
+      </c>
+      <c r="H104" s="3">
+        <v>15</v>
+      </c>
+      <c r="I104" s="3">
+        <v>2277887</v>
+      </c>
+      <c r="J104" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.837993338043816</v>
+      </c>
+      <c r="K104" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.0202886847683459</v>
+      </c>
+      <c r="L104" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.7396824337642736</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B105" s="2">
+        <v>44048</v>
+      </c>
+      <c r="C105" s="3">
+        <v>39714</v>
+      </c>
+      <c r="D105" s="3">
+        <v>35747</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2782</v>
+      </c>
+      <c r="F105" s="3">
+        <v>66</v>
+      </c>
+      <c r="G105" s="3">
+        <v>30</v>
+      </c>
+      <c r="H105" s="3">
+        <v>15</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2295116</v>
+      </c>
+      <c r="J105" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.011079216397235</v>
+      </c>
+      <c r="K105" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>7.0050863675278237</v>
+      </c>
+      <c r="L105" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.7303700553697503</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B106" s="2">
+        <v>44049</v>
+      </c>
+      <c r="C106" s="3">
+        <v>39809</v>
+      </c>
+      <c r="D106" s="3">
+        <v>35906</v>
+      </c>
+      <c r="E106" s="3">
+        <v>2783</v>
+      </c>
+      <c r="F106" s="3">
+        <v>71</v>
+      </c>
+      <c r="G106" s="3">
+        <v>29</v>
+      </c>
+      <c r="H106" s="3">
+        <v>13</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2321297</v>
+      </c>
+      <c r="J106" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.19568439297646</v>
+      </c>
+      <c r="K106" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.9908814589665651</v>
+      </c>
+      <c r="L106" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.7149464286560487</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B107" s="2">
+        <v>44050</v>
+      </c>
+      <c r="C107" s="3">
+        <v>39897</v>
+      </c>
+      <c r="D107" s="3">
+        <v>36024</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2783</v>
+      </c>
+      <c r="F107" s="3">
+        <v>66</v>
+      </c>
+      <c r="G107" s="3">
+        <v>28</v>
+      </c>
+      <c r="H107" s="3">
+        <v>12</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2346433</v>
+      </c>
+      <c r="J107" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.292503195728997</v>
+      </c>
+      <c r="K107" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.9754618141714921</v>
+      </c>
+      <c r="L107" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.7003255579852483</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B108" s="2">
+        <v>44051</v>
+      </c>
+      <c r="C108" s="3">
+        <v>39967</v>
+      </c>
+      <c r="D108" s="3">
+        <v>36131</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2784</v>
+      </c>
+      <c r="F108" s="3">
+        <v>53</v>
+      </c>
+      <c r="G108" s="3">
+        <v>27</v>
+      </c>
+      <c r="H108" s="3">
+        <v>12</v>
+      </c>
+      <c r="I108" s="3">
+        <v>2372441</v>
+      </c>
+      <c r="J108" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.402081717416877</v>
+      </c>
+      <c r="K108" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.9657467410613751</v>
+      </c>
+      <c r="L108" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.6846362038086511</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B109" s="2">
+        <v>44052</v>
+      </c>
+      <c r="C109" s="3">
+        <v>40046</v>
+      </c>
+      <c r="D109" s="3">
+        <v>36279</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2786</v>
+      </c>
+      <c r="F109" s="3">
+        <v>55</v>
+      </c>
+      <c r="G109" s="3">
+        <v>26</v>
+      </c>
+      <c r="H109" s="3">
+        <v>12</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2400212</v>
+      </c>
+      <c r="J109" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.593317684662637</v>
+      </c>
+      <c r="K109" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.9569994506317734</v>
+      </c>
+      <c r="L109" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.6684359548239904</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B110" s="2">
+        <v>44053</v>
+      </c>
+      <c r="C110" s="3">
+        <v>40161</v>
+      </c>
+      <c r="D110" s="3">
+        <v>36381</v>
+      </c>
+      <c r="E110" s="3">
+        <v>2786</v>
+      </c>
+      <c r="F110" s="3">
+        <v>49</v>
+      </c>
+      <c r="G110" s="3">
+        <v>25</v>
+      </c>
+      <c r="H110" s="3">
+        <v>14</v>
+      </c>
+      <c r="I110" s="3">
+        <v>2422487</v>
+      </c>
+      <c r="J110" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.587883767834469</v>
+      </c>
+      <c r="K110" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.9370782600034859</v>
+      </c>
+      <c r="L110" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.6578417139080623</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B111" s="2">
+        <v>44054</v>
+      </c>
+      <c r="C111" s="3">
+        <v>40194</v>
+      </c>
+      <c r="D111" s="3">
+        <v>36456</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2786</v>
+      </c>
+      <c r="F111" s="3">
+        <v>60</v>
+      </c>
+      <c r="G111" s="3">
+        <v>21</v>
+      </c>
+      <c r="H111" s="3">
+        <v>12</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2444068</v>
+      </c>
+      <c r="J111" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.700104493207945</v>
+      </c>
+      <c r="K111" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.9313827934517587</v>
+      </c>
+      <c r="L111" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.6445532612022251</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B112" s="2">
+        <v>44056</v>
+      </c>
+      <c r="C112" s="3">
+        <v>40367</v>
+      </c>
+      <c r="D112" s="3">
+        <v>36689</v>
+      </c>
+      <c r="E112" s="3">
+        <v>2787</v>
+      </c>
+      <c r="F112" s="3">
+        <v>43</v>
+      </c>
+      <c r="G112" s="3">
+        <v>20</v>
+      </c>
+      <c r="H112" s="3">
+        <v>10</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2498266</v>
+      </c>
+      <c r="J112" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.888597121411053</v>
+      </c>
+      <c r="K112" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.9041543835311021</v>
+      </c>
+      <c r="L112" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.6158007193789612</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B113" s="2">
+        <v>44057</v>
+      </c>
+      <c r="C113" s="3">
+        <v>40459</v>
+      </c>
+      <c r="D113" s="3">
+        <v>36772</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2788</v>
+      </c>
+      <c r="F113" s="3">
+        <v>41</v>
+      </c>
+      <c r="G113" s="3">
+        <v>17</v>
+      </c>
+      <c r="H113" s="3">
+        <v>9</v>
+      </c>
+      <c r="I113" s="3">
+        <v>2528403</v>
+      </c>
+      <c r="J113" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.887070861860153</v>
+      </c>
+      <c r="K113" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.8909266170691321</v>
+      </c>
+      <c r="L113" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.6001800345910047</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B114" s="2">
+        <v>44060</v>
+      </c>
+      <c r="C114" s="3">
+        <v>40475</v>
+      </c>
+      <c r="D114" s="3">
+        <v>37036</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2789</v>
+      </c>
+      <c r="F114" s="3">
+        <v>32</v>
+      </c>
+      <c r="G114" s="3">
+        <v>16</v>
+      </c>
+      <c r="H114" s="3">
+        <v>10</v>
+      </c>
+      <c r="I114" s="3">
+        <v>2608219</v>
+      </c>
+      <c r="J114" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>91.503397158739958</v>
+      </c>
+      <c r="K114" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.8906732550957379</v>
+      </c>
+      <c r="L114" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.5518252109964692</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B115" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C115" s="3">
+        <v>40870</v>
+      </c>
+      <c r="D115" s="3">
+        <v>37126</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2793</v>
+      </c>
+      <c r="F115" s="3">
+        <v>41</v>
+      </c>
+      <c r="G115" s="3">
+        <v>15</v>
+      </c>
+      <c r="H115" s="3">
+        <v>10</v>
+      </c>
+      <c r="I115" s="3">
+        <v>2631286</v>
+      </c>
+      <c r="J115" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.839246390995839</v>
+      </c>
+      <c r="K115" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.8338634695375582</v>
+      </c>
+      <c r="L115" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.5532329058870833</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B116" s="2">
+        <v>44062</v>
+      </c>
+      <c r="C116" s="3">
+        <v>40792</v>
+      </c>
+      <c r="D116" s="3">
+        <v>37215</v>
+      </c>
+      <c r="E116" s="3">
+        <v>2792</v>
+      </c>
+      <c r="F116" s="3">
+        <v>42</v>
+      </c>
+      <c r="G116" s="3">
+        <v>15</v>
+      </c>
+      <c r="H116" s="3">
+        <v>10</v>
+      </c>
+      <c r="I116" s="3">
+        <v>2656928</v>
+      </c>
+      <c r="J116" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>91.231123749754843</v>
+      </c>
+      <c r="K116" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.8444793096685625</v>
+      </c>
+      <c r="L116" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.5353069409483433</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B117" s="2">
+        <v>44063</v>
+      </c>
+      <c r="C117" s="3">
+        <v>41048</v>
+      </c>
+      <c r="D117" s="3">
+        <v>37921</v>
+      </c>
+      <c r="E117" s="3">
+        <v>2793</v>
+      </c>
+      <c r="F117" s="3">
+        <v>35</v>
+      </c>
+      <c r="G117" s="3">
+        <v>15</v>
+      </c>
+      <c r="H117" s="3">
+        <v>8</v>
+      </c>
+      <c r="I117" s="3">
+        <v>2682845</v>
+      </c>
+      <c r="J117" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>92.382089261352561</v>
+      </c>
+      <c r="K117" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.8042291950886762</v>
+      </c>
+      <c r="L117" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.5300175746269353</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B118" s="2">
+        <v>44064</v>
+      </c>
+      <c r="C118" s="3">
+        <v>41179</v>
+      </c>
+      <c r="D118" s="3">
+        <v>37397</v>
+      </c>
+      <c r="E118" s="3">
+        <v>2796</v>
+      </c>
+      <c r="F118" s="3">
+        <v>35</v>
+      </c>
+      <c r="G118" s="3">
+        <v>13</v>
+      </c>
+      <c r="H118" s="3">
+        <v>7</v>
+      </c>
+      <c r="I118" s="3">
+        <v>2710918</v>
+      </c>
+      <c r="J118" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.815707035139269</v>
+      </c>
+      <c r="K118" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.7898686223560558</v>
+      </c>
+      <c r="L118" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.5190057390153446</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B119" s="2">
+        <v>44065</v>
+      </c>
+      <c r="C119" s="3">
+        <v>41287</v>
+      </c>
+      <c r="D119" s="3">
+        <v>37487</v>
+      </c>
+      <c r="E119" s="3">
+        <v>2797</v>
+      </c>
+      <c r="F119" s="3">
+        <v>40</v>
+      </c>
+      <c r="G119" s="3">
+        <v>13</v>
+      </c>
+      <c r="H119" s="3">
+        <v>7</v>
+      </c>
+      <c r="I119" s="3">
+        <v>2739574</v>
+      </c>
+      <c r="J119" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.796134376438104</v>
+      </c>
+      <c r="K119" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.7745295129217427</v>
+      </c>
+      <c r="L119" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.5070591267109412</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B120" s="2">
+        <v>44066</v>
+      </c>
+      <c r="C120" s="3">
+        <v>41402</v>
+      </c>
+      <c r="D120" s="3">
+        <v>37595</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2797</v>
+      </c>
+      <c r="F120" s="3">
+        <v>41</v>
+      </c>
+      <c r="G120" s="3">
+        <v>11</v>
+      </c>
+      <c r="H120" s="3">
+        <v>6</v>
+      </c>
+      <c r="I120" s="3">
+        <v>2762958</v>
+      </c>
+      <c r="J120" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.804792039031938</v>
+      </c>
+      <c r="K120" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.7557122844307038</v>
+      </c>
+      <c r="L120" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4984664985859357</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B121" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C121" s="3">
+        <v>41507</v>
+      </c>
+      <c r="D121" s="3">
+        <v>37673</v>
+      </c>
+      <c r="E121" s="3">
+        <v>2798</v>
+      </c>
+      <c r="F121" s="3">
+        <v>40</v>
+      </c>
+      <c r="G121" s="3">
+        <v>12</v>
+      </c>
+      <c r="H121" s="3">
+        <v>7</v>
+      </c>
+      <c r="I121" s="3">
+        <v>2781748</v>
+      </c>
+      <c r="J121" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.763003830679168</v>
+      </c>
+      <c r="K121" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.7410316332184932</v>
+      </c>
+      <c r="L121" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4921193436644873</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B122" s="2">
+        <v>44068</v>
+      </c>
+      <c r="C122" s="3">
+        <v>41607</v>
+      </c>
+      <c r="D122" s="3">
+        <v>37748</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F122" s="3">
+        <v>39</v>
+      </c>
+      <c r="G122" s="3">
+        <v>13</v>
+      </c>
+      <c r="H122" s="3">
+        <v>10</v>
+      </c>
+      <c r="I122" s="3">
+        <v>2801761</v>
+      </c>
+      <c r="J122" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.725118369505125</v>
+      </c>
+      <c r="K122" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.7296368399548152</v>
+      </c>
+      <c r="L122" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4850303077243205</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B123" s="2">
+        <v>44069</v>
+      </c>
+      <c r="C123" s="3">
+        <v>41695</v>
+      </c>
+      <c r="D123" s="3">
+        <v>37863</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2802</v>
+      </c>
+      <c r="F123" s="3">
+        <v>43</v>
+      </c>
+      <c r="G123" s="3">
+        <v>15</v>
+      </c>
+      <c r="H123" s="3">
+        <v>10</v>
+      </c>
+      <c r="I123" s="3">
+        <v>2823721</v>
+      </c>
+      <c r="J123" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.809449574289474</v>
+      </c>
+      <c r="K123" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.7202302434344645</v>
+      </c>
+      <c r="L123" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4765977233586463</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B124" s="2">
+        <v>44070</v>
+      </c>
+      <c r="C124" s="3">
+        <v>41813</v>
+      </c>
+      <c r="D124" s="3">
+        <v>37940</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2803</v>
+      </c>
+      <c r="F124" s="3">
+        <v>48</v>
+      </c>
+      <c r="G124" s="3">
+        <v>18</v>
+      </c>
+      <c r="H124" s="3">
+        <v>10</v>
+      </c>
+      <c r="I124" s="3">
+        <v>2852346</v>
+      </c>
+      <c r="J124" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.737330495300512</v>
+      </c>
+      <c r="K124" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.7036567574677726</v>
+      </c>
+      <c r="L124" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4659161265849234</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B125" s="2">
+        <v>44071</v>
+      </c>
+      <c r="C125" s="3">
+        <v>41935</v>
+      </c>
+      <c r="D125" s="3">
+        <v>38023</v>
+      </c>
+      <c r="E125" s="3">
+        <v>2809</v>
+      </c>
+      <c r="F125" s="3">
+        <v>61</v>
+      </c>
+      <c r="G125" s="3">
+        <v>18</v>
+      </c>
+      <c r="H125" s="3">
+        <v>12</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2884169</v>
+      </c>
+      <c r="J125" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.671276976272807</v>
+      </c>
+      <c r="K125" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.6984619053296761</v>
+      </c>
+      <c r="L125" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4539716639350884</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B126" s="2">
+        <v>44072</v>
+      </c>
+      <c r="C126" s="3">
+        <v>42083</v>
+      </c>
+      <c r="D126" s="3">
+        <v>38126</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2809</v>
+      </c>
+      <c r="F126" s="3">
+        <v>51</v>
+      </c>
+      <c r="G126" s="3">
+        <v>17</v>
+      </c>
+      <c r="H126" s="3">
+        <v>5</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2916275</v>
+      </c>
+      <c r="J126" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.59715324477817</v>
+      </c>
+      <c r="K126" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.6749043556780645</v>
+      </c>
+      <c r="L126" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4430394938748918</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B127" s="2">
+        <v>44073</v>
+      </c>
+      <c r="C127" s="3">
+        <v>42195</v>
+      </c>
+      <c r="D127" s="3">
+        <v>38204</v>
+      </c>
+      <c r="E127" s="3">
+        <v>2810</v>
+      </c>
+      <c r="F127" s="3">
+        <v>51</v>
+      </c>
+      <c r="G127" s="3">
+        <v>20</v>
+      </c>
+      <c r="H127" s="3">
+        <v>10</v>
+      </c>
+      <c r="I127" s="3">
+        <v>2941245</v>
+      </c>
+      <c r="J127" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.541533357032819</v>
+      </c>
+      <c r="K127" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.6595568195283796</v>
+      </c>
+      <c r="L127" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4345965738998281</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B128" s="2">
+        <v>44074</v>
+      </c>
+      <c r="C128" s="3">
+        <v>42309</v>
+      </c>
+      <c r="D128" s="3">
+        <v>38277</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2811</v>
+      </c>
+      <c r="F128" s="3">
+        <v>49</v>
+      </c>
+      <c r="G128" s="3">
+        <v>18</v>
+      </c>
+      <c r="H128" s="3">
+        <v>9</v>
+      </c>
+      <c r="I128" s="3">
+        <v>2966343</v>
+      </c>
+      <c r="J128" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.470112741969785</v>
+      </c>
+      <c r="K128" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.6439764589094521</v>
+      </c>
+      <c r="L128" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4263016785314444</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="2">
@@ -22456,7 +28106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576 L2:L96">
+  <conditionalFormatting sqref="K1:K1048576 L2:L128">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -22477,10 +28127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4C6369-9339-4DBA-B4CE-78ECF208F7EA}">
-  <dimension ref="B2:J94"/>
+  <dimension ref="B2:J126"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:B94"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25595,9 +31245,1103 @@
       </c>
       <c r="J94" s="13"/>
     </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="12">
+        <v>44039</v>
+      </c>
+      <c r="C95" s="8">
+        <f>'Ontario Numbers'!C97-'Ontario Numbers'!C96</f>
+        <v>119</v>
+      </c>
+      <c r="D95" s="8">
+        <f>'Ontario Numbers'!D97-'Ontario Numbers'!D96</f>
+        <v>102</v>
+      </c>
+      <c r="E95" s="8">
+        <f>'Ontario Numbers'!E97-'Ontario Numbers'!E96</f>
+        <v>1</v>
+      </c>
+      <c r="F95" s="8">
+        <f>'Ontario Numbers'!F97-'Ontario Numbers'!F96</f>
+        <v>-5</v>
+      </c>
+      <c r="G95" s="8">
+        <f>'Ontario Numbers'!G97-'Ontario Numbers'!G96</f>
+        <v>1</v>
+      </c>
+      <c r="H95" s="8">
+        <f>'Ontario Numbers'!H97-'Ontario Numbers'!H96</f>
+        <v>-3</v>
+      </c>
+      <c r="I95" s="8">
+        <f>'Ontario Numbers'!I97-'Ontario Numbers'!I96</f>
+        <v>24664</v>
+      </c>
+      <c r="J95" s="13"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="12">
+        <v>44040</v>
+      </c>
+      <c r="C96" s="8">
+        <f>'Ontario Numbers'!C98-'Ontario Numbers'!C97</f>
+        <v>111</v>
+      </c>
+      <c r="D96" s="8">
+        <f>'Ontario Numbers'!D98-'Ontario Numbers'!D97</f>
+        <v>106</v>
+      </c>
+      <c r="E96" s="8">
+        <f>'Ontario Numbers'!E98-'Ontario Numbers'!E97</f>
+        <v>4</v>
+      </c>
+      <c r="F96" s="8">
+        <f>'Ontario Numbers'!F98-'Ontario Numbers'!F97</f>
+        <v>14</v>
+      </c>
+      <c r="G96" s="8">
+        <f>'Ontario Numbers'!G98-'Ontario Numbers'!G97</f>
+        <v>1</v>
+      </c>
+      <c r="H96" s="8">
+        <f>'Ontario Numbers'!H98-'Ontario Numbers'!H97</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="8">
+        <f>'Ontario Numbers'!I98-'Ontario Numbers'!I97</f>
+        <v>17334</v>
+      </c>
+      <c r="J96" s="13"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="12">
+        <v>44041</v>
+      </c>
+      <c r="C97" s="8">
+        <f>'Ontario Numbers'!C99-'Ontario Numbers'!C98</f>
+        <v>76</v>
+      </c>
+      <c r="D97" s="8">
+        <f>'Ontario Numbers'!D99-'Ontario Numbers'!D98</f>
+        <v>174</v>
+      </c>
+      <c r="E97" s="8">
+        <f>'Ontario Numbers'!E99-'Ontario Numbers'!E98</f>
+        <v>1</v>
+      </c>
+      <c r="F97" s="8">
+        <f>'Ontario Numbers'!F99-'Ontario Numbers'!F98</f>
+        <v>-5</v>
+      </c>
+      <c r="G97" s="8">
+        <f>'Ontario Numbers'!G99-'Ontario Numbers'!G98</f>
+        <v>-3</v>
+      </c>
+      <c r="H97" s="8">
+        <f>'Ontario Numbers'!H99-'Ontario Numbers'!H98</f>
+        <v>-1</v>
+      </c>
+      <c r="I97" s="8">
+        <f>'Ontario Numbers'!I99-'Ontario Numbers'!I98</f>
+        <v>27308</v>
+      </c>
+      <c r="J97" s="13"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="12">
+        <v>44042</v>
+      </c>
+      <c r="C98" s="8">
+        <f>'Ontario Numbers'!C100-'Ontario Numbers'!C99</f>
+        <v>89</v>
+      </c>
+      <c r="D98" s="8">
+        <f>'Ontario Numbers'!D100-'Ontario Numbers'!D99</f>
+        <v>165</v>
+      </c>
+      <c r="E98" s="8">
+        <f>'Ontario Numbers'!E100-'Ontario Numbers'!E99</f>
+        <v>3</v>
+      </c>
+      <c r="F98" s="8">
+        <f>'Ontario Numbers'!F100-'Ontario Numbers'!F99</f>
+        <v>-7</v>
+      </c>
+      <c r="G98" s="8">
+        <f>'Ontario Numbers'!G100-'Ontario Numbers'!G99</f>
+        <v>-1</v>
+      </c>
+      <c r="H98" s="8">
+        <f>'Ontario Numbers'!H100-'Ontario Numbers'!H99</f>
+        <v>-1</v>
+      </c>
+      <c r="I98" s="8">
+        <f>'Ontario Numbers'!I100-'Ontario Numbers'!I99</f>
+        <v>27676</v>
+      </c>
+      <c r="J98" s="13"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="12">
+        <v>44043</v>
+      </c>
+      <c r="C99" s="8">
+        <f>'Ontario Numbers'!C101-'Ontario Numbers'!C100</f>
+        <v>134</v>
+      </c>
+      <c r="D99" s="8">
+        <f>'Ontario Numbers'!D101-'Ontario Numbers'!D100</f>
+        <v>168</v>
+      </c>
+      <c r="E99" s="8">
+        <f>'Ontario Numbers'!E101-'Ontario Numbers'!E100</f>
+        <v>3</v>
+      </c>
+      <c r="F99" s="8">
+        <f>'Ontario Numbers'!F101-'Ontario Numbers'!F100</f>
+        <v>-6</v>
+      </c>
+      <c r="G99" s="8">
+        <f>'Ontario Numbers'!G101-'Ontario Numbers'!G100</f>
+        <v>2</v>
+      </c>
+      <c r="H99" s="8">
+        <f>'Ontario Numbers'!H101-'Ontario Numbers'!H100</f>
+        <v>-1</v>
+      </c>
+      <c r="I99" s="8">
+        <f>'Ontario Numbers'!I101-'Ontario Numbers'!I100</f>
+        <v>30033</v>
+      </c>
+      <c r="J99" s="13"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="12">
+        <v>44044</v>
+      </c>
+      <c r="C100" s="8">
+        <f>'Ontario Numbers'!C102-'Ontario Numbers'!C101</f>
+        <v>124</v>
+      </c>
+      <c r="D100" s="8">
+        <f>'Ontario Numbers'!D102-'Ontario Numbers'!D101</f>
+        <v>163</v>
+      </c>
+      <c r="E100" s="8">
+        <f>'Ontario Numbers'!E102-'Ontario Numbers'!E101</f>
+        <v>2</v>
+      </c>
+      <c r="F100" s="8">
+        <f>'Ontario Numbers'!F102-'Ontario Numbers'!F101</f>
+        <v>-5</v>
+      </c>
+      <c r="G100" s="8">
+        <f>'Ontario Numbers'!G102-'Ontario Numbers'!G101</f>
+        <v>-2</v>
+      </c>
+      <c r="H100" s="8">
+        <f>'Ontario Numbers'!H102-'Ontario Numbers'!H101</f>
+        <v>-3</v>
+      </c>
+      <c r="I100" s="8">
+        <f>'Ontario Numbers'!I102-'Ontario Numbers'!I101</f>
+        <v>33282</v>
+      </c>
+      <c r="J100" s="13"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="12">
+        <v>44045</v>
+      </c>
+      <c r="C101" s="8">
+        <f>'Ontario Numbers'!C103-'Ontario Numbers'!C102</f>
+        <v>116</v>
+      </c>
+      <c r="D101" s="8">
+        <f>'Ontario Numbers'!D103-'Ontario Numbers'!D102</f>
+        <v>122</v>
+      </c>
+      <c r="E101" s="8">
+        <f>'Ontario Numbers'!E103-'Ontario Numbers'!E102</f>
+        <v>1</v>
+      </c>
+      <c r="F101" s="8">
+        <f>'Ontario Numbers'!F103-'Ontario Numbers'!F102</f>
+        <v>-1</v>
+      </c>
+      <c r="G101" s="8">
+        <f>'Ontario Numbers'!G103-'Ontario Numbers'!G102</f>
+        <v>-1</v>
+      </c>
+      <c r="H101" s="8">
+        <f>'Ontario Numbers'!H103-'Ontario Numbers'!H102</f>
+        <v>2</v>
+      </c>
+      <c r="I101" s="8">
+        <f>'Ontario Numbers'!I103-'Ontario Numbers'!I102</f>
+        <v>30443</v>
+      </c>
+      <c r="J101" s="13"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="12">
+        <v>44047</v>
+      </c>
+      <c r="C102" s="8">
+        <f>'Ontario Numbers'!C104-'Ontario Numbers'!C103</f>
+        <v>179</v>
+      </c>
+      <c r="D102" s="8">
+        <f>'Ontario Numbers'!D104-'Ontario Numbers'!D103</f>
+        <v>242</v>
+      </c>
+      <c r="E102" s="8">
+        <f>'Ontario Numbers'!E104-'Ontario Numbers'!E103</f>
+        <v>4</v>
+      </c>
+      <c r="F102" s="8">
+        <f>'Ontario Numbers'!F104-'Ontario Numbers'!F103</f>
+        <v>6</v>
+      </c>
+      <c r="G102" s="8">
+        <f>'Ontario Numbers'!G104-'Ontario Numbers'!G103</f>
+        <v>2</v>
+      </c>
+      <c r="H102" s="8">
+        <f>'Ontario Numbers'!H104-'Ontario Numbers'!H103</f>
+        <v>1</v>
+      </c>
+      <c r="I102" s="8">
+        <f>'Ontario Numbers'!I104-'Ontario Numbers'!I103</f>
+        <v>42190</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="12">
+        <v>44048</v>
+      </c>
+      <c r="C103" s="8">
+        <f>'Ontario Numbers'!C105-'Ontario Numbers'!C104</f>
+        <v>86</v>
+      </c>
+      <c r="D103" s="8">
+        <f>'Ontario Numbers'!D105-'Ontario Numbers'!D104</f>
+        <v>146</v>
+      </c>
+      <c r="E103" s="8">
+        <f>'Ontario Numbers'!E105-'Ontario Numbers'!E104</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="8">
+        <f>'Ontario Numbers'!F105-'Ontario Numbers'!F104</f>
+        <v>-12</v>
+      </c>
+      <c r="G103" s="8">
+        <f>'Ontario Numbers'!G105-'Ontario Numbers'!G104</f>
+        <v>2</v>
+      </c>
+      <c r="H103" s="8">
+        <f>'Ontario Numbers'!H105-'Ontario Numbers'!H104</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="8">
+        <f>'Ontario Numbers'!I105-'Ontario Numbers'!I104</f>
+        <v>17229</v>
+      </c>
+      <c r="J103" s="13"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="12">
+        <v>44049</v>
+      </c>
+      <c r="C104" s="8">
+        <f>'Ontario Numbers'!C106-'Ontario Numbers'!C105</f>
+        <v>95</v>
+      </c>
+      <c r="D104" s="8">
+        <f>'Ontario Numbers'!D106-'Ontario Numbers'!D105</f>
+        <v>159</v>
+      </c>
+      <c r="E104" s="8">
+        <f>'Ontario Numbers'!E106-'Ontario Numbers'!E105</f>
+        <v>1</v>
+      </c>
+      <c r="F104" s="8">
+        <f>'Ontario Numbers'!F106-'Ontario Numbers'!F105</f>
+        <v>5</v>
+      </c>
+      <c r="G104" s="8">
+        <f>'Ontario Numbers'!G106-'Ontario Numbers'!G105</f>
+        <v>-1</v>
+      </c>
+      <c r="H104" s="8">
+        <f>'Ontario Numbers'!H106-'Ontario Numbers'!H105</f>
+        <v>-2</v>
+      </c>
+      <c r="I104" s="8">
+        <f>'Ontario Numbers'!I106-'Ontario Numbers'!I105</f>
+        <v>26181</v>
+      </c>
+      <c r="J104" s="13"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="12">
+        <v>44050</v>
+      </c>
+      <c r="C105" s="8">
+        <f>'Ontario Numbers'!C107-'Ontario Numbers'!C106</f>
+        <v>88</v>
+      </c>
+      <c r="D105" s="8">
+        <f>'Ontario Numbers'!D107-'Ontario Numbers'!D106</f>
+        <v>118</v>
+      </c>
+      <c r="E105" s="8">
+        <f>'Ontario Numbers'!E107-'Ontario Numbers'!E106</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
+        <f>'Ontario Numbers'!F107-'Ontario Numbers'!F106</f>
+        <v>-5</v>
+      </c>
+      <c r="G105" s="8">
+        <f>'Ontario Numbers'!G107-'Ontario Numbers'!G106</f>
+        <v>-1</v>
+      </c>
+      <c r="H105" s="8">
+        <f>'Ontario Numbers'!H107-'Ontario Numbers'!H106</f>
+        <v>-1</v>
+      </c>
+      <c r="I105" s="8">
+        <f>'Ontario Numbers'!I107-'Ontario Numbers'!I106</f>
+        <v>25136</v>
+      </c>
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="12">
+        <v>44051</v>
+      </c>
+      <c r="C106" s="8">
+        <f>'Ontario Numbers'!C108-'Ontario Numbers'!C107</f>
+        <v>70</v>
+      </c>
+      <c r="D106" s="8">
+        <f>'Ontario Numbers'!D108-'Ontario Numbers'!D107</f>
+        <v>107</v>
+      </c>
+      <c r="E106" s="8">
+        <f>'Ontario Numbers'!E108-'Ontario Numbers'!E107</f>
+        <v>1</v>
+      </c>
+      <c r="F106" s="8">
+        <f>'Ontario Numbers'!F108-'Ontario Numbers'!F107</f>
+        <v>-13</v>
+      </c>
+      <c r="G106" s="8">
+        <f>'Ontario Numbers'!G108-'Ontario Numbers'!G107</f>
+        <v>-1</v>
+      </c>
+      <c r="H106" s="8">
+        <f>'Ontario Numbers'!H108-'Ontario Numbers'!H107</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="8">
+        <f>'Ontario Numbers'!I108-'Ontario Numbers'!I107</f>
+        <v>26008</v>
+      </c>
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" s="12">
+        <v>44052</v>
+      </c>
+      <c r="C107" s="8">
+        <f>'Ontario Numbers'!C109-'Ontario Numbers'!C108</f>
+        <v>79</v>
+      </c>
+      <c r="D107" s="8">
+        <f>'Ontario Numbers'!D109-'Ontario Numbers'!D108</f>
+        <v>148</v>
+      </c>
+      <c r="E107" s="8">
+        <f>'Ontario Numbers'!E109-'Ontario Numbers'!E108</f>
+        <v>2</v>
+      </c>
+      <c r="F107" s="8">
+        <f>'Ontario Numbers'!F109-'Ontario Numbers'!F108</f>
+        <v>2</v>
+      </c>
+      <c r="G107" s="8">
+        <f>'Ontario Numbers'!G109-'Ontario Numbers'!G108</f>
+        <v>-1</v>
+      </c>
+      <c r="H107" s="8">
+        <f>'Ontario Numbers'!H109-'Ontario Numbers'!H108</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="8">
+        <f>'Ontario Numbers'!I109-'Ontario Numbers'!I108</f>
+        <v>27771</v>
+      </c>
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108" s="12">
+        <v>44053</v>
+      </c>
+      <c r="C108" s="8">
+        <f>'Ontario Numbers'!C110-'Ontario Numbers'!C109</f>
+        <v>115</v>
+      </c>
+      <c r="D108" s="8">
+        <f>'Ontario Numbers'!D110-'Ontario Numbers'!D109</f>
+        <v>102</v>
+      </c>
+      <c r="E108" s="8">
+        <f>'Ontario Numbers'!E110-'Ontario Numbers'!E109</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="8">
+        <f>'Ontario Numbers'!F110-'Ontario Numbers'!F109</f>
+        <v>-6</v>
+      </c>
+      <c r="G108" s="8">
+        <f>'Ontario Numbers'!G110-'Ontario Numbers'!G109</f>
+        <v>-1</v>
+      </c>
+      <c r="H108" s="8">
+        <f>'Ontario Numbers'!H110-'Ontario Numbers'!H109</f>
+        <v>2</v>
+      </c>
+      <c r="I108" s="8">
+        <f>'Ontario Numbers'!I110-'Ontario Numbers'!I109</f>
+        <v>22275</v>
+      </c>
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C109" s="8">
+        <f>'Ontario Numbers'!C111-'Ontario Numbers'!C110</f>
+        <v>33</v>
+      </c>
+      <c r="D109" s="8">
+        <f>'Ontario Numbers'!D111-'Ontario Numbers'!D110</f>
+        <v>75</v>
+      </c>
+      <c r="E109" s="8">
+        <f>'Ontario Numbers'!E111-'Ontario Numbers'!E110</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="8">
+        <f>'Ontario Numbers'!F111-'Ontario Numbers'!F110</f>
+        <v>11</v>
+      </c>
+      <c r="G109" s="8">
+        <f>'Ontario Numbers'!G111-'Ontario Numbers'!G110</f>
+        <v>-4</v>
+      </c>
+      <c r="H109" s="8">
+        <f>'Ontario Numbers'!H111-'Ontario Numbers'!H110</f>
+        <v>-2</v>
+      </c>
+      <c r="I109" s="8">
+        <f>'Ontario Numbers'!I111-'Ontario Numbers'!I110</f>
+        <v>21581</v>
+      </c>
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110" s="12">
+        <v>44056</v>
+      </c>
+      <c r="C110" s="8">
+        <f>'Ontario Numbers'!C112-'Ontario Numbers'!C111</f>
+        <v>173</v>
+      </c>
+      <c r="D110" s="8">
+        <f>'Ontario Numbers'!D112-'Ontario Numbers'!D111</f>
+        <v>233</v>
+      </c>
+      <c r="E110" s="8">
+        <f>'Ontario Numbers'!E112-'Ontario Numbers'!E111</f>
+        <v>1</v>
+      </c>
+      <c r="F110" s="8">
+        <f>'Ontario Numbers'!F112-'Ontario Numbers'!F111</f>
+        <v>-17</v>
+      </c>
+      <c r="G110" s="8">
+        <f>'Ontario Numbers'!G112-'Ontario Numbers'!G111</f>
+        <v>-1</v>
+      </c>
+      <c r="H110" s="8">
+        <f>'Ontario Numbers'!H112-'Ontario Numbers'!H111</f>
+        <v>-2</v>
+      </c>
+      <c r="I110" s="8">
+        <f>'Ontario Numbers'!I112-'Ontario Numbers'!I111</f>
+        <v>54198</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111" s="12">
+        <v>44057</v>
+      </c>
+      <c r="C111" s="8">
+        <f>'Ontario Numbers'!C113-'Ontario Numbers'!C112</f>
+        <v>92</v>
+      </c>
+      <c r="D111" s="8">
+        <f>'Ontario Numbers'!D113-'Ontario Numbers'!D112</f>
+        <v>83</v>
+      </c>
+      <c r="E111" s="8">
+        <f>'Ontario Numbers'!E113-'Ontario Numbers'!E112</f>
+        <v>1</v>
+      </c>
+      <c r="F111" s="8">
+        <f>'Ontario Numbers'!F113-'Ontario Numbers'!F112</f>
+        <v>-2</v>
+      </c>
+      <c r="G111" s="8">
+        <f>'Ontario Numbers'!G113-'Ontario Numbers'!G112</f>
+        <v>-3</v>
+      </c>
+      <c r="H111" s="8">
+        <f>'Ontario Numbers'!H113-'Ontario Numbers'!H112</f>
+        <v>-1</v>
+      </c>
+      <c r="I111" s="8">
+        <f>'Ontario Numbers'!I113-'Ontario Numbers'!I112</f>
+        <v>30137</v>
+      </c>
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B112" s="12">
+        <v>44060</v>
+      </c>
+      <c r="C112" s="16">
+        <f>'Ontario Numbers'!C114-'Ontario Numbers'!C113</f>
+        <v>16</v>
+      </c>
+      <c r="D112" s="16">
+        <f>'Ontario Numbers'!D114-'Ontario Numbers'!D113</f>
+        <v>264</v>
+      </c>
+      <c r="E112" s="16">
+        <f>'Ontario Numbers'!E114-'Ontario Numbers'!E113</f>
+        <v>1</v>
+      </c>
+      <c r="F112" s="16">
+        <f>'Ontario Numbers'!F114-'Ontario Numbers'!F113</f>
+        <v>-9</v>
+      </c>
+      <c r="G112" s="16">
+        <f>'Ontario Numbers'!G114-'Ontario Numbers'!G113</f>
+        <v>-1</v>
+      </c>
+      <c r="H112" s="16">
+        <f>'Ontario Numbers'!H114-'Ontario Numbers'!H113</f>
+        <v>1</v>
+      </c>
+      <c r="I112" s="16">
+        <f>'Ontario Numbers'!I114-'Ontario Numbers'!I113</f>
+        <v>79816</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B113" s="12">
+        <v>44061</v>
+      </c>
+      <c r="C113" s="8">
+        <f>'Ontario Numbers'!C115-'Ontario Numbers'!C114</f>
+        <v>395</v>
+      </c>
+      <c r="D113" s="8">
+        <f>'Ontario Numbers'!D115-'Ontario Numbers'!D114</f>
+        <v>90</v>
+      </c>
+      <c r="E113" s="8">
+        <f>'Ontario Numbers'!E115-'Ontario Numbers'!E114</f>
+        <v>4</v>
+      </c>
+      <c r="F113" s="8">
+        <f>'Ontario Numbers'!F115-'Ontario Numbers'!F114</f>
+        <v>9</v>
+      </c>
+      <c r="G113" s="8">
+        <f>'Ontario Numbers'!G115-'Ontario Numbers'!G114</f>
+        <v>-1</v>
+      </c>
+      <c r="H113" s="8">
+        <f>'Ontario Numbers'!H115-'Ontario Numbers'!H114</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="8">
+        <f>'Ontario Numbers'!I115-'Ontario Numbers'!I114</f>
+        <v>23067</v>
+      </c>
+      <c r="J113" s="13"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B114" s="12">
+        <v>44062</v>
+      </c>
+      <c r="C114" s="8">
+        <f>'Ontario Numbers'!C116-'Ontario Numbers'!C115</f>
+        <v>-78</v>
+      </c>
+      <c r="D114" s="8">
+        <f>'Ontario Numbers'!D116-'Ontario Numbers'!D115</f>
+        <v>89</v>
+      </c>
+      <c r="E114" s="8">
+        <f>'Ontario Numbers'!E116-'Ontario Numbers'!E115</f>
+        <v>-1</v>
+      </c>
+      <c r="F114" s="8">
+        <f>'Ontario Numbers'!F116-'Ontario Numbers'!F115</f>
+        <v>1</v>
+      </c>
+      <c r="G114" s="8">
+        <f>'Ontario Numbers'!G116-'Ontario Numbers'!G115</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
+        <f>'Ontario Numbers'!H116-'Ontario Numbers'!H115</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="8">
+        <f>'Ontario Numbers'!I116-'Ontario Numbers'!I115</f>
+        <v>25642</v>
+      </c>
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B115" s="12">
+        <v>44063</v>
+      </c>
+      <c r="C115" s="8">
+        <f>'Ontario Numbers'!C117-'Ontario Numbers'!C116</f>
+        <v>256</v>
+      </c>
+      <c r="D115" s="8">
+        <f>'Ontario Numbers'!D117-'Ontario Numbers'!D116</f>
+        <v>706</v>
+      </c>
+      <c r="E115" s="8">
+        <f>'Ontario Numbers'!E117-'Ontario Numbers'!E116</f>
+        <v>1</v>
+      </c>
+      <c r="F115" s="8">
+        <f>'Ontario Numbers'!F117-'Ontario Numbers'!F116</f>
+        <v>-7</v>
+      </c>
+      <c r="G115" s="8">
+        <f>'Ontario Numbers'!G117-'Ontario Numbers'!G116</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="8">
+        <f>'Ontario Numbers'!H117-'Ontario Numbers'!H116</f>
+        <v>-2</v>
+      </c>
+      <c r="I115" s="8">
+        <f>'Ontario Numbers'!I117-'Ontario Numbers'!I116</f>
+        <v>25917</v>
+      </c>
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116" s="12">
+        <v>44064</v>
+      </c>
+      <c r="C116" s="8">
+        <f>'Ontario Numbers'!C118-'Ontario Numbers'!C117</f>
+        <v>131</v>
+      </c>
+      <c r="D116" s="8">
+        <f>'Ontario Numbers'!D118-'Ontario Numbers'!D117</f>
+        <v>-524</v>
+      </c>
+      <c r="E116" s="8">
+        <f>'Ontario Numbers'!E118-'Ontario Numbers'!E117</f>
+        <v>3</v>
+      </c>
+      <c r="F116" s="8">
+        <f>'Ontario Numbers'!F118-'Ontario Numbers'!F117</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
+        <f>'Ontario Numbers'!G118-'Ontario Numbers'!G117</f>
+        <v>-2</v>
+      </c>
+      <c r="H116" s="8">
+        <f>'Ontario Numbers'!H118-'Ontario Numbers'!H117</f>
+        <v>-1</v>
+      </c>
+      <c r="I116" s="8">
+        <f>'Ontario Numbers'!I118-'Ontario Numbers'!I117</f>
+        <v>28073</v>
+      </c>
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117" s="12">
+        <v>44065</v>
+      </c>
+      <c r="C117" s="8">
+        <f>'Ontario Numbers'!C119-'Ontario Numbers'!C118</f>
+        <v>108</v>
+      </c>
+      <c r="D117" s="8">
+        <f>'Ontario Numbers'!D119-'Ontario Numbers'!D118</f>
+        <v>90</v>
+      </c>
+      <c r="E117" s="8">
+        <f>'Ontario Numbers'!E119-'Ontario Numbers'!E118</f>
+        <v>1</v>
+      </c>
+      <c r="F117" s="8">
+        <f>'Ontario Numbers'!F119-'Ontario Numbers'!F118</f>
+        <v>5</v>
+      </c>
+      <c r="G117" s="8">
+        <f>'Ontario Numbers'!G119-'Ontario Numbers'!G118</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="8">
+        <f>'Ontario Numbers'!H119-'Ontario Numbers'!H118</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="8">
+        <f>'Ontario Numbers'!I119-'Ontario Numbers'!I118</f>
+        <v>28656</v>
+      </c>
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118" s="12">
+        <v>44066</v>
+      </c>
+      <c r="C118" s="8">
+        <f>'Ontario Numbers'!C120-'Ontario Numbers'!C119</f>
+        <v>115</v>
+      </c>
+      <c r="D118" s="8">
+        <f>'Ontario Numbers'!D120-'Ontario Numbers'!D119</f>
+        <v>108</v>
+      </c>
+      <c r="E118" s="8">
+        <f>'Ontario Numbers'!E120-'Ontario Numbers'!E119</f>
+        <v>0</v>
+      </c>
+      <c r="F118" s="8">
+        <f>'Ontario Numbers'!F120-'Ontario Numbers'!F119</f>
+        <v>1</v>
+      </c>
+      <c r="G118" s="8">
+        <f>'Ontario Numbers'!G120-'Ontario Numbers'!G119</f>
+        <v>-2</v>
+      </c>
+      <c r="H118" s="8">
+        <f>'Ontario Numbers'!H120-'Ontario Numbers'!H119</f>
+        <v>-1</v>
+      </c>
+      <c r="I118" s="8">
+        <f>'Ontario Numbers'!I120-'Ontario Numbers'!I119</f>
+        <v>23384</v>
+      </c>
+      <c r="J118" s="13"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119" s="12">
+        <v>44067</v>
+      </c>
+      <c r="C119" s="8">
+        <f>'Ontario Numbers'!C121-'Ontario Numbers'!C120</f>
+        <v>105</v>
+      </c>
+      <c r="D119" s="8">
+        <f>'Ontario Numbers'!D121-'Ontario Numbers'!D120</f>
+        <v>78</v>
+      </c>
+      <c r="E119" s="8">
+        <f>'Ontario Numbers'!E121-'Ontario Numbers'!E120</f>
+        <v>1</v>
+      </c>
+      <c r="F119" s="8">
+        <f>'Ontario Numbers'!F121-'Ontario Numbers'!F120</f>
+        <v>-1</v>
+      </c>
+      <c r="G119" s="8">
+        <f>'Ontario Numbers'!G121-'Ontario Numbers'!G120</f>
+        <v>1</v>
+      </c>
+      <c r="H119" s="8">
+        <f>'Ontario Numbers'!H121-'Ontario Numbers'!H120</f>
+        <v>1</v>
+      </c>
+      <c r="I119" s="8">
+        <f>'Ontario Numbers'!I121-'Ontario Numbers'!I120</f>
+        <v>18790</v>
+      </c>
+      <c r="J119" s="13"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120" s="12">
+        <v>44068</v>
+      </c>
+      <c r="C120" s="8">
+        <f>'Ontario Numbers'!C122-'Ontario Numbers'!C121</f>
+        <v>100</v>
+      </c>
+      <c r="D120" s="8">
+        <f>'Ontario Numbers'!D122-'Ontario Numbers'!D121</f>
+        <v>75</v>
+      </c>
+      <c r="E120" s="8">
+        <f>'Ontario Numbers'!E122-'Ontario Numbers'!E121</f>
+        <v>2</v>
+      </c>
+      <c r="F120" s="8">
+        <f>'Ontario Numbers'!F122-'Ontario Numbers'!F121</f>
+        <v>-1</v>
+      </c>
+      <c r="G120" s="8">
+        <f>'Ontario Numbers'!G122-'Ontario Numbers'!G121</f>
+        <v>1</v>
+      </c>
+      <c r="H120" s="8">
+        <f>'Ontario Numbers'!H122-'Ontario Numbers'!H121</f>
+        <v>3</v>
+      </c>
+      <c r="I120" s="8">
+        <f>'Ontario Numbers'!I122-'Ontario Numbers'!I121</f>
+        <v>20013</v>
+      </c>
+      <c r="J120" s="13"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B121" s="12">
+        <v>44069</v>
+      </c>
+      <c r="C121" s="8">
+        <f>'Ontario Numbers'!C123-'Ontario Numbers'!C122</f>
+        <v>88</v>
+      </c>
+      <c r="D121" s="8">
+        <f>'Ontario Numbers'!D123-'Ontario Numbers'!D122</f>
+        <v>115</v>
+      </c>
+      <c r="E121" s="8">
+        <f>'Ontario Numbers'!E123-'Ontario Numbers'!E122</f>
+        <v>2</v>
+      </c>
+      <c r="F121" s="8">
+        <f>'Ontario Numbers'!F123-'Ontario Numbers'!F122</f>
+        <v>4</v>
+      </c>
+      <c r="G121" s="8">
+        <f>'Ontario Numbers'!G123-'Ontario Numbers'!G122</f>
+        <v>2</v>
+      </c>
+      <c r="H121" s="8">
+        <f>'Ontario Numbers'!H123-'Ontario Numbers'!H122</f>
+        <v>0</v>
+      </c>
+      <c r="I121" s="8">
+        <f>'Ontario Numbers'!I123-'Ontario Numbers'!I122</f>
+        <v>21960</v>
+      </c>
+      <c r="J121" s="13"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="12">
+        <v>44070</v>
+      </c>
+      <c r="C122" s="8">
+        <f>'Ontario Numbers'!C124-'Ontario Numbers'!C123</f>
+        <v>118</v>
+      </c>
+      <c r="D122" s="8">
+        <f>'Ontario Numbers'!D124-'Ontario Numbers'!D123</f>
+        <v>77</v>
+      </c>
+      <c r="E122" s="8">
+        <f>'Ontario Numbers'!E124-'Ontario Numbers'!E123</f>
+        <v>1</v>
+      </c>
+      <c r="F122" s="8">
+        <f>'Ontario Numbers'!F124-'Ontario Numbers'!F123</f>
+        <v>5</v>
+      </c>
+      <c r="G122" s="8">
+        <f>'Ontario Numbers'!G124-'Ontario Numbers'!G123</f>
+        <v>3</v>
+      </c>
+      <c r="H122" s="8">
+        <f>'Ontario Numbers'!H124-'Ontario Numbers'!H123</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="8">
+        <f>'Ontario Numbers'!I124-'Ontario Numbers'!I123</f>
+        <v>28625</v>
+      </c>
+      <c r="J122" s="13"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B123" s="12">
+        <v>44071</v>
+      </c>
+      <c r="C123" s="8">
+        <f>'Ontario Numbers'!C125-'Ontario Numbers'!C124</f>
+        <v>122</v>
+      </c>
+      <c r="D123" s="8">
+        <f>'Ontario Numbers'!D125-'Ontario Numbers'!D124</f>
+        <v>83</v>
+      </c>
+      <c r="E123" s="8">
+        <f>'Ontario Numbers'!E125-'Ontario Numbers'!E124</f>
+        <v>6</v>
+      </c>
+      <c r="F123" s="8">
+        <f>'Ontario Numbers'!F125-'Ontario Numbers'!F124</f>
+        <v>13</v>
+      </c>
+      <c r="G123" s="8">
+        <f>'Ontario Numbers'!G125-'Ontario Numbers'!G124</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="8">
+        <f>'Ontario Numbers'!H125-'Ontario Numbers'!H124</f>
+        <v>2</v>
+      </c>
+      <c r="I123" s="8">
+        <f>'Ontario Numbers'!I125-'Ontario Numbers'!I124</f>
+        <v>31823</v>
+      </c>
+      <c r="J123" s="13"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124" s="12">
+        <v>44072</v>
+      </c>
+      <c r="C124" s="8">
+        <f>'Ontario Numbers'!C126-'Ontario Numbers'!C125</f>
+        <v>148</v>
+      </c>
+      <c r="D124" s="8">
+        <f>'Ontario Numbers'!D126-'Ontario Numbers'!D125</f>
+        <v>103</v>
+      </c>
+      <c r="E124" s="8">
+        <f>'Ontario Numbers'!E126-'Ontario Numbers'!E125</f>
+        <v>0</v>
+      </c>
+      <c r="F124" s="8">
+        <f>'Ontario Numbers'!F126-'Ontario Numbers'!F125</f>
+        <v>-10</v>
+      </c>
+      <c r="G124" s="8">
+        <f>'Ontario Numbers'!G126-'Ontario Numbers'!G125</f>
+        <v>-1</v>
+      </c>
+      <c r="H124" s="8">
+        <f>'Ontario Numbers'!H126-'Ontario Numbers'!H125</f>
+        <v>-7</v>
+      </c>
+      <c r="I124" s="8">
+        <f>'Ontario Numbers'!I126-'Ontario Numbers'!I125</f>
+        <v>32106</v>
+      </c>
+      <c r="J124" s="13"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="12">
+        <v>44073</v>
+      </c>
+      <c r="C125" s="8">
+        <f>'Ontario Numbers'!C127-'Ontario Numbers'!C126</f>
+        <v>112</v>
+      </c>
+      <c r="D125" s="8">
+        <f>'Ontario Numbers'!D127-'Ontario Numbers'!D126</f>
+        <v>78</v>
+      </c>
+      <c r="E125" s="8">
+        <f>'Ontario Numbers'!E127-'Ontario Numbers'!E126</f>
+        <v>1</v>
+      </c>
+      <c r="F125" s="8">
+        <f>'Ontario Numbers'!F127-'Ontario Numbers'!F126</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
+        <f>'Ontario Numbers'!G127-'Ontario Numbers'!G126</f>
+        <v>3</v>
+      </c>
+      <c r="H125" s="8">
+        <f>'Ontario Numbers'!H127-'Ontario Numbers'!H126</f>
+        <v>5</v>
+      </c>
+      <c r="I125" s="8">
+        <f>'Ontario Numbers'!I127-'Ontario Numbers'!I126</f>
+        <v>24970</v>
+      </c>
+      <c r="J125" s="13"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" s="12">
+        <v>44074</v>
+      </c>
+      <c r="C126" s="8">
+        <f>'Ontario Numbers'!C128-'Ontario Numbers'!C127</f>
+        <v>114</v>
+      </c>
+      <c r="D126" s="8">
+        <f>'Ontario Numbers'!D128-'Ontario Numbers'!D127</f>
+        <v>73</v>
+      </c>
+      <c r="E126" s="8">
+        <f>'Ontario Numbers'!E128-'Ontario Numbers'!E127</f>
+        <v>1</v>
+      </c>
+      <c r="F126" s="8">
+        <f>'Ontario Numbers'!F128-'Ontario Numbers'!F127</f>
+        <v>-2</v>
+      </c>
+      <c r="G126" s="8">
+        <f>'Ontario Numbers'!G128-'Ontario Numbers'!G127</f>
+        <v>-2</v>
+      </c>
+      <c r="H126" s="8">
+        <f>'Ontario Numbers'!H128-'Ontario Numbers'!H127</f>
+        <v>-1</v>
+      </c>
+      <c r="I126" s="8">
+        <f>'Ontario Numbers'!I128-'Ontario Numbers'!I127</f>
+        <v>25098</v>
+      </c>
+      <c r="J126" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C95:C1048576 C1:C2">
+  <conditionalFormatting sqref="C1:C2 C113:C1048576">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -25609,7 +32353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95:D1048576 D1:D2">
+  <conditionalFormatting sqref="D113:D1048576 D1:D2">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -25621,7 +32365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:E1048576 E1:E2">
+  <conditionalFormatting sqref="E1:E2 E113:E1048576">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -25633,7 +32377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F1048576 F1:F2">
+  <conditionalFormatting sqref="F113:F1048576 F1:F2">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -25645,7 +32389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95:G1048576 G1:G2">
+  <conditionalFormatting sqref="G113:G1048576 G1:G2">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -25657,7 +32401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H1048576 H1:H2">
+  <conditionalFormatting sqref="H113:H1048576 H1:H2">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -25669,7 +32413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H1048576 H1:H2">
+  <conditionalFormatting sqref="H113:H1048576 H1:H2">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -25691,7 +32435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95:G1048576">
+  <conditionalFormatting sqref="G113:G1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -25703,7 +32447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F1048576">
+  <conditionalFormatting sqref="F113:F1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -25715,7 +32459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:E1048576">
+  <conditionalFormatting sqref="E113:E1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -25727,7 +32471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95:D1048576 D1:D2">
+  <conditionalFormatting sqref="D113:D1048576 D1:D2">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -25739,7 +32483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95:C1048576">
+  <conditionalFormatting sqref="C113:C1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -25751,7 +32495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:I1048576 I1:I2">
+  <conditionalFormatting sqref="I113:I1048576 I1:I2">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -25763,7 +32507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C26 C28:C36 C40:C48 C50:C51 C53:C58 C61:C70 C73:C74 C76:C77 C79:C1048576">
+  <conditionalFormatting sqref="C1:C26 C28:C36 C40:C48 C50:C51 C53:C58 C61:C70 C73:C74 C76:C77 C79:C101 C103:C109 C111 C113:C1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -25775,7 +32519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D26 D28:D36 D40:D48 D50:D51 D53:D58 D61:D70 D73:D74 D76:D77 D79:D1048576">
+  <conditionalFormatting sqref="D1:D26 D28:D36 D40:D48 D50:D51 D53:D58 D61:D70 D73:D74 D76:D77 D79:D101 D103:D109 D111 D113:D1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -25787,7 +32531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E26 E28:E36 E40:E48 E50:E51 E53:E58 E61:E70 E73:E74 E76:E77 E79:E1048576">
+  <conditionalFormatting sqref="E1:E26 E28:E36 E40:E48 E50:E51 E53:E58 E61:E70 E73:E74 E76:E77 E79:E101 E103:E109 E111 E113:E1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -25799,7 +32543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F26 F28:F36 F40:F48 F50:F51 F53:F58 F61:F70 F73:F74 F76:F77 F79:F1048576">
+  <conditionalFormatting sqref="F1:F26 F28:F36 F40:F48 F50:F51 F53:F58 F61:F70 F73:F74 F76:F77 F79:F101 F103:F109 F111 F113:F1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -25811,7 +32555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G26 G28:G36 G40:G48 G50:G51 G53:G58 G61:G70 G73:G74 G76:G77 G79:G1048576">
+  <conditionalFormatting sqref="G1:G26 G28:G36 G40:G48 G50:G51 G53:G58 G61:G70 G73:G74 G76:G77 G79:G101 G103:G109 G111 G113:G1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -25823,7 +32567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H26 H28:H36 H40:H48 H50:H51 H53:H58 H61:H70 H73:H74 H76:H77 H79:H1048576">
+  <conditionalFormatting sqref="H1:H26 H28:H36 H40:H48 H50:H51 H53:H58 H61:H70 H73:H74 H76:H77 H79:H101 H103:H109 H111 H113:H1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -25835,7 +32579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I26 I28:I36 I40:I48 I50:I51 I53:I58 I61:I70 I73:I74 I76:I77 I79:I1048576">
+  <conditionalFormatting sqref="I1:I26 I28:I36 I40:I48 I50:I51 I53:I58 I61:I70 I73:I74 I76:I77 I79:I101 I103:I109 I111 I113:I1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -25858,8 +32602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AEEB9B-2C10-44E9-A3AC-EEED8671C8A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Covid-19/Ontario_covid19.xlsx
+++ b/Covid-19/Ontario_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANUP'S PC\Desktop\covid progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977612D2-A7E8-404B-8BD8-178F72A1E925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD40F8-DC39-45C4-BB38-C074D0386A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{19989E70-BC6C-4134-8D86-BBE004C5602A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>number over 3 days</t>
+  </si>
+  <si>
+    <t>over 2 days</t>
+  </si>
+  <si>
+    <t>labour day holiday</t>
   </si>
 </sst>
 </file>
@@ -954,10 +960,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -1332,16 +1338,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$C$3:$C$128</c:f>
+              <c:f>'Ontario Numbers'!$C$3:$C$140</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>7953</c:v>
                 </c:pt>
@@ -1716,6 +1758,42 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42421</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43161</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43161</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43685</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,10 +1833,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -2133,16 +2211,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$D$3:$D$128</c:f>
+              <c:f>'Ontario Numbers'!$D$3:$D$140</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>3568</c:v>
                 </c:pt>
@@ -2517,6 +2631,42 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>38277</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>38369</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>38506</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>38625</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>38847</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>38958</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>38958</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>39196</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>39332</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>39474</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>39598</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>39717</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>39841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,10 +2706,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -2934,16 +3084,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$E$3:$E$128</c:f>
+              <c:f>'Ontario Numbers'!$E$3:$E$140</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>334</c:v>
                 </c:pt>
@@ -3318,6 +3504,42 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>2811</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2811</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2814</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2814</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,13 +3602,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -3761,6 +3983,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3770,13 +4028,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$F$3:$F$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$F$3:$F$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>769</c:v>
                       </c:pt>
@@ -4151,6 +4409,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4201,13 +4495,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -4582,6 +4876,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4591,13 +4921,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$G$3:$G$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$G$3:$G$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>255</c:v>
                       </c:pt>
@@ -4972,6 +5302,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>14</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5022,13 +5388,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -5403,6 +5769,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5412,13 +5814,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$H$3:$H$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$H$3:$H$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>199</c:v>
                       </c:pt>
@@ -5792,6 +6194,42 @@
                         <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="125">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
                         <c:v>9</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5845,13 +6283,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -6226,6 +6664,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6235,13 +6709,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$I$3:$I$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$I$3:$I$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>113082</c:v>
                       </c:pt>
@@ -6601,6 +7075,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>2966343</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>2989888</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>3013892</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>3040190</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>3097453</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>3126408</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>3126408</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>3171062</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>3188667</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>3213336</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>3245837</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>3281455</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>3312598</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6653,13 +7163,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -7034,6 +7544,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7043,13 +7589,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$J$3:$J$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$J$3:$J$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>44.863573494278889</c:v>
                       </c:pt>
@@ -7424,6 +7970,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>90.470112741969785</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>90.448127106857456</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>90.487380739765939</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>90.486342126224045</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>90.33555798432667</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>90.262042121359571</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>90.262042121359571</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>90.031238515251744</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>90.035481286482778</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>90.010261087675289</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>89.85658527729872</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>89.65462753950338</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>89.522290131224153</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7476,13 +8058,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -7857,6 +8439,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7866,13 +8484,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$K$3:$K$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$K$3:$K$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>4.199673079341129</c:v>
                       </c:pt>
@@ -8247,6 +8865,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>6.6439764589094521</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>6.628792343414819</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>6.6080744465855146</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>6.5876399756360389</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>6.5367532497732723</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>6.5174578902249714</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>6.5174578902249714</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>6.4613193678794563</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>6.4392812178093175</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>6.4166001596169195</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>6.3833166923844971</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>6.3521444695259595</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>6.3252741326622326</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8299,13 +8953,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -8680,6 +9334,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8689,13 +9379,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$L$3:$L$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$L$3:$L$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>7.0329495410410141</c:v>
                       </c:pt>
@@ -9055,6 +9745,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>1.4263016785314444</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>1.4188156880792859</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>1.4119284964424736</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>1.4040569832806502</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>1.3883342216976335</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>1.3805299884084228</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>1.3805299884084228</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>1.3729154459925412</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>1.3700082197357077</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>1.3647810250779875</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>1.357677542033072</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>1.3500108945574447</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>1.3434772344848365</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9367,10 +10093,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -9745,16 +10471,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$F$3:$F$128</c:f>
+              <c:f>'Ontario Numbers'!$F$3:$F$140</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>769</c:v>
                 </c:pt>
@@ -10129,6 +10891,42 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10168,10 +10966,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -10546,16 +11344,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$G$3:$G$128</c:f>
+              <c:f>'Ontario Numbers'!$G$3:$G$140</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>255</c:v>
                 </c:pt>
@@ -10930,6 +11764,42 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10969,10 +11839,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -11347,16 +12217,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$H$3:$H$128</c:f>
+              <c:f>'Ontario Numbers'!$H$3:$H$140</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>199</c:v>
                 </c:pt>
@@ -11730,6 +12636,42 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="125">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -11793,13 +12735,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -12174,6 +13116,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12183,13 +13161,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$C$3:$C$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$C$3:$C$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>7953</c:v>
                       </c:pt>
@@ -12564,6 +13542,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>42309</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>42421</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>42554</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>42686</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>43003</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>43161</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>43161</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>43536</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>43685</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>43855</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44300</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44504</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12614,13 +13628,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -12995,6 +14009,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13004,13 +14054,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$D$3:$D$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$D$3:$D$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>3568</c:v>
                       </c:pt>
@@ -13385,6 +14435,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>38277</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>38369</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>38506</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>38625</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>38847</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>38958</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>38958</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>39196</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>39332</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>39474</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>39598</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>39717</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>39841</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13435,13 +14521,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -13816,6 +14902,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13825,13 +14947,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$E$3:$E$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$E$3:$E$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>334</c:v>
                       </c:pt>
@@ -14206,6 +15328,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>2811</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>2812</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>2812</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>2812</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>2811</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>2813</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>2813</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>2813</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>2813</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>2814</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>2813</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>2814</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>2815</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14258,13 +15416,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -14639,6 +15797,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14648,13 +15842,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$I$3:$I$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$I$3:$I$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>113082</c:v>
                       </c:pt>
@@ -15014,6 +16208,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>2966343</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>2989888</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>3013892</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>3040190</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>3097453</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>3126408</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>3126408</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>3171062</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>3188667</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>3213336</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>3245837</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>3281455</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>3312598</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15066,13 +16296,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -15447,6 +16677,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15456,13 +16722,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$J$3:$J$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$J$3:$J$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>44.863573494278889</c:v>
                       </c:pt>
@@ -15837,6 +17103,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>90.470112741969785</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>90.448127106857456</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>90.487380739765939</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>90.486342126224045</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>90.33555798432667</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>90.262042121359571</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>90.262042121359571</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>90.031238515251744</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>90.035481286482778</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>90.010261087675289</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>89.85658527729872</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>89.65462753950338</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>89.522290131224153</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15889,13 +17191,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -16270,6 +17572,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16279,13 +17617,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$K$3:$K$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$K$3:$K$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>4.199673079341129</c:v>
                       </c:pt>
@@ -16660,6 +17998,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>6.6439764589094521</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>6.628792343414819</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>6.6080744465855146</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>6.5876399756360389</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>6.5367532497732723</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>6.5174578902249714</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>6.5174578902249714</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>6.4613193678794563</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>6.4392812178093175</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>6.4166001596169195</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>6.3833166923844971</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>6.3521444695259595</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>6.3252741326622326</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16712,13 +18086,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$B$3:$B$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$B$3:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>43935</c:v>
                       </c:pt>
@@ -17093,6 +18467,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44087</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17102,13 +18512,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Ontario Numbers'!$L$3:$L$128</c15:sqref>
+                          <c15:sqref>'Ontario Numbers'!$L$3:$L$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="126"/>
+                      <c:ptCount val="138"/>
                       <c:pt idx="1">
                         <c:v>7.0329495410410141</c:v>
                       </c:pt>
@@ -17468,6 +18878,42 @@
                       </c:pt>
                       <c:pt idx="125">
                         <c:v>1.4263016785314444</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>1.4188156880792859</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>1.4119284964424736</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>1.4040569832806502</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>1.3883342216976335</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>1.3805299884084228</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>1.3805299884084228</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>1.3729154459925412</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>1.3700082197357077</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>1.3647810250779875</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>1.357677542033072</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>1.3500108945574447</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>1.3434772344848365</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17780,10 +19226,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -18158,16 +19604,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$J$3:$J$128</c:f>
+              <c:f>'Ontario Numbers'!$J$3:$J$140</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>44.863573494278889</c:v>
                 </c:pt>
@@ -18542,6 +20024,42 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>90.470112741969785</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>90.448127106857456</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>90.487380739765939</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>90.486342126224045</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>90.33555798432667</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>90.262042121359571</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>90.262042121359571</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>90.031238515251744</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>90.035481286482778</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>90.010261087675289</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>89.85658527729872</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>89.65462753950338</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>89.522290131224153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18581,10 +20099,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -18959,16 +20477,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$K$3:$K$128</c:f>
+              <c:f>'Ontario Numbers'!$K$3:$K$140</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>4.199673079341129</c:v>
                 </c:pt>
@@ -19343,6 +20897,42 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>6.6439764589094521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.628792343414819</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.6080744465855146</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.5876399756360389</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.5367532497732723</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.5174578902249714</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.5174578902249714</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.4613193678794563</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.4392812178093175</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.4166001596169195</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.3833166923844971</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.3521444695259595</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.3252741326622326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19651,10 +21241,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$B$3:$B$128</c:f>
+              <c:f>'Ontario Numbers'!$B$3:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>43935</c:v>
                 </c:pt>
@@ -20029,16 +21619,52 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ontario Numbers'!$L$3:$L$128</c:f>
+              <c:f>'Ontario Numbers'!$L$3:$L$140</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="1">
                   <c:v>7.0329495410410141</c:v>
                 </c:pt>
@@ -20398,6 +22024,42 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>1.4263016785314444</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4188156880792859</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.4119284964424736</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4040569832806502</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.3883342216976335</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3805299884084228</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3805299884084228</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3729154459925412</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3700082197357077</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.3647810250779875</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.357677542033072</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.3500108945574447</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.3434772344848365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22954,8 +24616,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40A14897-AC0A-4CAE-83F3-E086FB56E024}" name="Table1" displayName="Table1" ref="B2:L128" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="B2:L128" xr:uid="{88D94B5C-5E47-4145-8471-C685A1750CAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40A14897-AC0A-4CAE-83F3-E086FB56E024}" name="Table1" displayName="Table1" ref="B2:L140" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="B2:L140" xr:uid="{88D94B5C-5E47-4145-8471-C685A1750CAA}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{876FA1C1-3C5A-4853-B8B9-67A3AC516FD8}" name="Date" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{F3EBB786-706B-4DCB-8ED7-CB8D6D06132C}" name="Total number of cases" dataDxfId="22" dataCellStyle="Comma"/>
@@ -22980,8 +24642,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{601C3399-CC0B-4AF4-8FE1-F17B69DA4883}" name="Table2" displayName="Table2" ref="B2:J126" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="B2:J126" xr:uid="{AFF5FD80-35B1-4B7C-9EC7-94A96BA23D7C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{601C3399-CC0B-4AF4-8FE1-F17B69DA4883}" name="Table2" displayName="Table2" ref="B2:J138" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="B2:J138" xr:uid="{AFF5FD80-35B1-4B7C-9EC7-94A96BA23D7C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0BD484D2-643D-4659-B7E2-46E12BA0EB9C}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{1A3AA545-D795-4092-BA82-48BC6CEAAA56}" name="Number of cases" dataDxfId="7" dataCellStyle="Comma">
@@ -23308,10 +24970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB3FAF-8F52-48D7-8B7E-9F3560C7F935}">
-  <dimension ref="B2:M128"/>
+  <dimension ref="B2:M140"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+    <sheetView topLeftCell="H118" workbookViewId="0">
+      <selection activeCell="N140" sqref="N140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28093,6 +29755,462 @@
         <v>1.4263016785314444</v>
       </c>
     </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B129" s="2">
+        <v>44075</v>
+      </c>
+      <c r="C129" s="3">
+        <v>42421</v>
+      </c>
+      <c r="D129" s="3">
+        <v>38369</v>
+      </c>
+      <c r="E129" s="3">
+        <v>2812</v>
+      </c>
+      <c r="F129" s="3">
+        <v>65</v>
+      </c>
+      <c r="G129" s="3">
+        <v>17</v>
+      </c>
+      <c r="H129" s="3">
+        <v>5</v>
+      </c>
+      <c r="I129" s="3">
+        <v>2989888</v>
+      </c>
+      <c r="J129" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.448127106857456</v>
+      </c>
+      <c r="K129" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.628792343414819</v>
+      </c>
+      <c r="L129" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4188156880792859</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B130" s="2">
+        <v>44076</v>
+      </c>
+      <c r="C130" s="3">
+        <v>42554</v>
+      </c>
+      <c r="D130" s="3">
+        <v>38506</v>
+      </c>
+      <c r="E130" s="3">
+        <v>2812</v>
+      </c>
+      <c r="F130" s="3">
+        <v>60</v>
+      </c>
+      <c r="G130" s="3">
+        <v>13</v>
+      </c>
+      <c r="H130" s="3">
+        <v>9</v>
+      </c>
+      <c r="I130" s="3">
+        <v>3013892</v>
+      </c>
+      <c r="J130" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.487380739765939</v>
+      </c>
+      <c r="K130" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.6080744465855146</v>
+      </c>
+      <c r="L130" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4119284964424736</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B131" s="2">
+        <v>44077</v>
+      </c>
+      <c r="C131" s="3">
+        <v>42686</v>
+      </c>
+      <c r="D131" s="3">
+        <v>38625</v>
+      </c>
+      <c r="E131" s="3">
+        <v>2812</v>
+      </c>
+      <c r="F131" s="3">
+        <v>60</v>
+      </c>
+      <c r="G131" s="3">
+        <v>12</v>
+      </c>
+      <c r="H131" s="3">
+        <v>9</v>
+      </c>
+      <c r="I131" s="3">
+        <v>3040190</v>
+      </c>
+      <c r="J131" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.486342126224045</v>
+      </c>
+      <c r="K131" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.5876399756360389</v>
+      </c>
+      <c r="L131" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.4040569832806502</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B132" s="2">
+        <v>44079</v>
+      </c>
+      <c r="C132" s="3">
+        <v>43003</v>
+      </c>
+      <c r="D132" s="3">
+        <v>38847</v>
+      </c>
+      <c r="E132" s="3">
+        <v>2811</v>
+      </c>
+      <c r="F132" s="3">
+        <v>58</v>
+      </c>
+      <c r="G132" s="3">
+        <v>14</v>
+      </c>
+      <c r="H132" s="3">
+        <v>8</v>
+      </c>
+      <c r="I132" s="3">
+        <v>3097453</v>
+      </c>
+      <c r="J132" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.33555798432667</v>
+      </c>
+      <c r="K132" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.5367532497732723</v>
+      </c>
+      <c r="L132" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.3883342216976335</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B133" s="2">
+        <v>44080</v>
+      </c>
+      <c r="C133" s="3">
+        <v>43161</v>
+      </c>
+      <c r="D133" s="3">
+        <v>38958</v>
+      </c>
+      <c r="E133" s="3">
+        <v>2813</v>
+      </c>
+      <c r="F133" s="3">
+        <v>52</v>
+      </c>
+      <c r="G133" s="3">
+        <v>15</v>
+      </c>
+      <c r="H133" s="3">
+        <v>9</v>
+      </c>
+      <c r="I133" s="3">
+        <v>3126408</v>
+      </c>
+      <c r="J133" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.262042121359571</v>
+      </c>
+      <c r="K133" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.5174578902249714</v>
+      </c>
+      <c r="L133" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.3805299884084228</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B134" s="2">
+        <v>44081</v>
+      </c>
+      <c r="C134" s="3">
+        <v>43161</v>
+      </c>
+      <c r="D134" s="3">
+        <v>38958</v>
+      </c>
+      <c r="E134" s="3">
+        <v>2813</v>
+      </c>
+      <c r="F134" s="3">
+        <v>52</v>
+      </c>
+      <c r="G134" s="3">
+        <v>15</v>
+      </c>
+      <c r="H134" s="3">
+        <v>9</v>
+      </c>
+      <c r="I134" s="3">
+        <v>3126408</v>
+      </c>
+      <c r="J134" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.262042121359571</v>
+      </c>
+      <c r="K134" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.5174578902249714</v>
+      </c>
+      <c r="L134" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.3805299884084228</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B135" s="2">
+        <v>44082</v>
+      </c>
+      <c r="C135" s="3">
+        <v>43536</v>
+      </c>
+      <c r="D135" s="3">
+        <v>39196</v>
+      </c>
+      <c r="E135" s="3">
+        <v>2813</v>
+      </c>
+      <c r="F135" s="3">
+        <v>54</v>
+      </c>
+      <c r="G135" s="3">
+        <v>17</v>
+      </c>
+      <c r="H135" s="3">
+        <v>7</v>
+      </c>
+      <c r="I135" s="3">
+        <v>3171062</v>
+      </c>
+      <c r="J135" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.031238515251744</v>
+      </c>
+      <c r="K135" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.4613193678794563</v>
+      </c>
+      <c r="L135" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.3729154459925412</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B136" s="2">
+        <v>44083</v>
+      </c>
+      <c r="C136" s="3">
+        <v>43685</v>
+      </c>
+      <c r="D136" s="3">
+        <v>39332</v>
+      </c>
+      <c r="E136" s="3">
+        <v>2813</v>
+      </c>
+      <c r="F136" s="3">
+        <v>55</v>
+      </c>
+      <c r="G136" s="3">
+        <v>15</v>
+      </c>
+      <c r="H136" s="3">
+        <v>8</v>
+      </c>
+      <c r="I136" s="3">
+        <v>3188667</v>
+      </c>
+      <c r="J136" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.035481286482778</v>
+      </c>
+      <c r="K136" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.4392812178093175</v>
+      </c>
+      <c r="L136" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.3700082197357077</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B137" s="2">
+        <v>44084</v>
+      </c>
+      <c r="C137" s="3">
+        <v>43855</v>
+      </c>
+      <c r="D137" s="3">
+        <v>39474</v>
+      </c>
+      <c r="E137" s="3">
+        <v>2814</v>
+      </c>
+      <c r="F137" s="3">
+        <v>54</v>
+      </c>
+      <c r="G137" s="3">
+        <v>14</v>
+      </c>
+      <c r="H137" s="3">
+        <v>9</v>
+      </c>
+      <c r="I137" s="3">
+        <v>3213336</v>
+      </c>
+      <c r="J137" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>90.010261087675289</v>
+      </c>
+      <c r="K137" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.4166001596169195</v>
+      </c>
+      <c r="L137" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.3647810250779875</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B138" s="2">
+        <v>44085</v>
+      </c>
+      <c r="C138" s="3">
+        <v>44068</v>
+      </c>
+      <c r="D138" s="3">
+        <v>39598</v>
+      </c>
+      <c r="E138" s="3">
+        <v>2813</v>
+      </c>
+      <c r="F138" s="3">
+        <v>49</v>
+      </c>
+      <c r="G138" s="3">
+        <v>18</v>
+      </c>
+      <c r="H138" s="3">
+        <v>9</v>
+      </c>
+      <c r="I138" s="3">
+        <v>3245837</v>
+      </c>
+      <c r="J138" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.85658527729872</v>
+      </c>
+      <c r="K138" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.3833166923844971</v>
+      </c>
+      <c r="L138" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.357677542033072</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B139" s="2">
+        <v>44086</v>
+      </c>
+      <c r="C139" s="3">
+        <v>44300</v>
+      </c>
+      <c r="D139" s="3">
+        <v>39717</v>
+      </c>
+      <c r="E139" s="3">
+        <v>2814</v>
+      </c>
+      <c r="F139" s="3">
+        <v>43</v>
+      </c>
+      <c r="G139" s="3">
+        <v>12</v>
+      </c>
+      <c r="H139" s="3">
+        <v>8</v>
+      </c>
+      <c r="I139" s="3">
+        <v>3281455</v>
+      </c>
+      <c r="J139" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.65462753950338</v>
+      </c>
+      <c r="K139" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.3521444695259595</v>
+      </c>
+      <c r="L139" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.3500108945574447</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B140" s="2">
+        <v>44087</v>
+      </c>
+      <c r="C140" s="3">
+        <v>44504</v>
+      </c>
+      <c r="D140" s="3">
+        <v>39841</v>
+      </c>
+      <c r="E140" s="3">
+        <v>2815</v>
+      </c>
+      <c r="F140" s="3">
+        <v>39</v>
+      </c>
+      <c r="G140" s="3">
+        <v>14</v>
+      </c>
+      <c r="H140" s="3">
+        <v>9</v>
+      </c>
+      <c r="I140" s="3">
+        <v>3312598</v>
+      </c>
+      <c r="J140" s="14">
+        <f>Table1[[#This Row],[Resolved]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>89.522290131224153</v>
+      </c>
+      <c r="K140" s="14">
+        <f>Table1[[#This Row],[Deaths]]/Table1[[#This Row],[Total number of cases]]*100</f>
+        <v>6.3252741326622326</v>
+      </c>
+      <c r="L140" s="14">
+        <f>Table1[[#This Row],[Total number of cases]]/Table1[[#This Row],[Total Tested]]*100</f>
+        <v>1.3434772344848365</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="2">
@@ -28106,7 +30224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576 L2:L128">
+  <conditionalFormatting sqref="K1:K1048576 L2:L140">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -28127,10 +30245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4C6369-9339-4DBA-B4CE-78ECF208F7EA}">
-  <dimension ref="B2:J126"/>
+  <dimension ref="B2:J138"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:B126"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137:B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32339,9 +34457,423 @@
       </c>
       <c r="J126" s="13"/>
     </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" s="12">
+        <v>44075</v>
+      </c>
+      <c r="C127" s="8">
+        <f>'Ontario Numbers'!C129-'Ontario Numbers'!C128</f>
+        <v>112</v>
+      </c>
+      <c r="D127" s="8">
+        <f>'Ontario Numbers'!D129-'Ontario Numbers'!D128</f>
+        <v>92</v>
+      </c>
+      <c r="E127" s="8">
+        <f>'Ontario Numbers'!E129-'Ontario Numbers'!E128</f>
+        <v>1</v>
+      </c>
+      <c r="F127" s="8">
+        <f>'Ontario Numbers'!F129-'Ontario Numbers'!F128</f>
+        <v>16</v>
+      </c>
+      <c r="G127" s="8">
+        <f>'Ontario Numbers'!G129-'Ontario Numbers'!G128</f>
+        <v>-1</v>
+      </c>
+      <c r="H127" s="8">
+        <f>'Ontario Numbers'!H129-'Ontario Numbers'!H128</f>
+        <v>-4</v>
+      </c>
+      <c r="I127" s="8">
+        <f>'Ontario Numbers'!I129-'Ontario Numbers'!I128</f>
+        <v>23545</v>
+      </c>
+      <c r="J127" s="13"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" s="12">
+        <v>44076</v>
+      </c>
+      <c r="C128" s="8">
+        <f>'Ontario Numbers'!C130-'Ontario Numbers'!C129</f>
+        <v>133</v>
+      </c>
+      <c r="D128" s="8">
+        <f>'Ontario Numbers'!D130-'Ontario Numbers'!D129</f>
+        <v>137</v>
+      </c>
+      <c r="E128" s="8">
+        <f>'Ontario Numbers'!E130-'Ontario Numbers'!E129</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="8">
+        <f>'Ontario Numbers'!F130-'Ontario Numbers'!F129</f>
+        <v>-5</v>
+      </c>
+      <c r="G128" s="8">
+        <f>'Ontario Numbers'!G130-'Ontario Numbers'!G129</f>
+        <v>-4</v>
+      </c>
+      <c r="H128" s="8">
+        <f>'Ontario Numbers'!H130-'Ontario Numbers'!H129</f>
+        <v>4</v>
+      </c>
+      <c r="I128" s="8">
+        <f>'Ontario Numbers'!I130-'Ontario Numbers'!I129</f>
+        <v>24004</v>
+      </c>
+      <c r="J128" s="13"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B129" s="12">
+        <v>44077</v>
+      </c>
+      <c r="C129" s="8">
+        <f>'Ontario Numbers'!C131-'Ontario Numbers'!C130</f>
+        <v>132</v>
+      </c>
+      <c r="D129" s="8">
+        <f>'Ontario Numbers'!D131-'Ontario Numbers'!D130</f>
+        <v>119</v>
+      </c>
+      <c r="E129" s="8">
+        <f>'Ontario Numbers'!E131-'Ontario Numbers'!E130</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="8">
+        <f>'Ontario Numbers'!F131-'Ontario Numbers'!F130</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="8">
+        <f>'Ontario Numbers'!G131-'Ontario Numbers'!G130</f>
+        <v>-1</v>
+      </c>
+      <c r="H129" s="8">
+        <f>'Ontario Numbers'!H131-'Ontario Numbers'!H130</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="8">
+        <f>'Ontario Numbers'!I131-'Ontario Numbers'!I130</f>
+        <v>26298</v>
+      </c>
+      <c r="J129" s="13"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" s="12">
+        <v>44079</v>
+      </c>
+      <c r="C130" s="16">
+        <f>'Ontario Numbers'!C132-'Ontario Numbers'!C131</f>
+        <v>317</v>
+      </c>
+      <c r="D130" s="16">
+        <f>'Ontario Numbers'!D132-'Ontario Numbers'!D131</f>
+        <v>222</v>
+      </c>
+      <c r="E130" s="16">
+        <f>'Ontario Numbers'!E132-'Ontario Numbers'!E131</f>
+        <v>-1</v>
+      </c>
+      <c r="F130" s="16">
+        <f>'Ontario Numbers'!F132-'Ontario Numbers'!F131</f>
+        <v>-2</v>
+      </c>
+      <c r="G130" s="16">
+        <f>'Ontario Numbers'!G132-'Ontario Numbers'!G131</f>
+        <v>2</v>
+      </c>
+      <c r="H130" s="16">
+        <f>'Ontario Numbers'!H132-'Ontario Numbers'!H131</f>
+        <v>-1</v>
+      </c>
+      <c r="I130" s="16">
+        <f>'Ontario Numbers'!I132-'Ontario Numbers'!I131</f>
+        <v>57263</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" s="12">
+        <v>44080</v>
+      </c>
+      <c r="C131" s="8">
+        <f>'Ontario Numbers'!C133-'Ontario Numbers'!C132</f>
+        <v>158</v>
+      </c>
+      <c r="D131" s="8">
+        <f>'Ontario Numbers'!D133-'Ontario Numbers'!D132</f>
+        <v>111</v>
+      </c>
+      <c r="E131" s="8">
+        <f>'Ontario Numbers'!E133-'Ontario Numbers'!E132</f>
+        <v>2</v>
+      </c>
+      <c r="F131" s="8">
+        <f>'Ontario Numbers'!F133-'Ontario Numbers'!F132</f>
+        <v>-6</v>
+      </c>
+      <c r="G131" s="8">
+        <f>'Ontario Numbers'!G133-'Ontario Numbers'!G132</f>
+        <v>1</v>
+      </c>
+      <c r="H131" s="8">
+        <f>'Ontario Numbers'!H133-'Ontario Numbers'!H132</f>
+        <v>1</v>
+      </c>
+      <c r="I131" s="8">
+        <f>'Ontario Numbers'!I133-'Ontario Numbers'!I132</f>
+        <v>28955</v>
+      </c>
+      <c r="J131" s="13"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" s="12">
+        <v>44081</v>
+      </c>
+      <c r="C132" s="8">
+        <f>'Ontario Numbers'!C134-'Ontario Numbers'!C133</f>
+        <v>0</v>
+      </c>
+      <c r="D132" s="8">
+        <f>'Ontario Numbers'!D134-'Ontario Numbers'!D133</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="8">
+        <f>'Ontario Numbers'!E134-'Ontario Numbers'!E133</f>
+        <v>0</v>
+      </c>
+      <c r="F132" s="8">
+        <f>'Ontario Numbers'!F134-'Ontario Numbers'!F133</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="8">
+        <f>'Ontario Numbers'!G134-'Ontario Numbers'!G133</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="8">
+        <f>'Ontario Numbers'!H134-'Ontario Numbers'!H133</f>
+        <v>0</v>
+      </c>
+      <c r="I132" s="8">
+        <f>'Ontario Numbers'!I134-'Ontario Numbers'!I133</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" s="12">
+        <v>44082</v>
+      </c>
+      <c r="C133" s="8">
+        <f>'Ontario Numbers'!C135-'Ontario Numbers'!C134</f>
+        <v>375</v>
+      </c>
+      <c r="D133" s="8">
+        <f>'Ontario Numbers'!D135-'Ontario Numbers'!D134</f>
+        <v>238</v>
+      </c>
+      <c r="E133" s="8">
+        <f>'Ontario Numbers'!E135-'Ontario Numbers'!E134</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="8">
+        <f>'Ontario Numbers'!F135-'Ontario Numbers'!F134</f>
+        <v>2</v>
+      </c>
+      <c r="G133" s="8">
+        <f>'Ontario Numbers'!G135-'Ontario Numbers'!G134</f>
+        <v>2</v>
+      </c>
+      <c r="H133" s="8">
+        <f>'Ontario Numbers'!H135-'Ontario Numbers'!H134</f>
+        <v>-2</v>
+      </c>
+      <c r="I133" s="8">
+        <f>'Ontario Numbers'!I135-'Ontario Numbers'!I134</f>
+        <v>44654</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134" s="12">
+        <v>44083</v>
+      </c>
+      <c r="C134" s="8">
+        <f>'Ontario Numbers'!C136-'Ontario Numbers'!C135</f>
+        <v>149</v>
+      </c>
+      <c r="D134" s="8">
+        <f>'Ontario Numbers'!D136-'Ontario Numbers'!D135</f>
+        <v>136</v>
+      </c>
+      <c r="E134" s="8">
+        <f>'Ontario Numbers'!E136-'Ontario Numbers'!E135</f>
+        <v>0</v>
+      </c>
+      <c r="F134" s="8">
+        <f>'Ontario Numbers'!F136-'Ontario Numbers'!F135</f>
+        <v>1</v>
+      </c>
+      <c r="G134" s="8">
+        <f>'Ontario Numbers'!G136-'Ontario Numbers'!G135</f>
+        <v>-2</v>
+      </c>
+      <c r="H134" s="8">
+        <f>'Ontario Numbers'!H136-'Ontario Numbers'!H135</f>
+        <v>1</v>
+      </c>
+      <c r="I134" s="8">
+        <f>'Ontario Numbers'!I136-'Ontario Numbers'!I135</f>
+        <v>17605</v>
+      </c>
+      <c r="J134" s="13"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" s="12">
+        <v>44084</v>
+      </c>
+      <c r="C135" s="8">
+        <f>'Ontario Numbers'!C137-'Ontario Numbers'!C136</f>
+        <v>170</v>
+      </c>
+      <c r="D135" s="8">
+        <f>'Ontario Numbers'!D137-'Ontario Numbers'!D136</f>
+        <v>142</v>
+      </c>
+      <c r="E135" s="8">
+        <f>'Ontario Numbers'!E137-'Ontario Numbers'!E136</f>
+        <v>1</v>
+      </c>
+      <c r="F135" s="8">
+        <f>'Ontario Numbers'!F137-'Ontario Numbers'!F136</f>
+        <v>-1</v>
+      </c>
+      <c r="G135" s="8">
+        <f>'Ontario Numbers'!G137-'Ontario Numbers'!G136</f>
+        <v>-1</v>
+      </c>
+      <c r="H135" s="8">
+        <f>'Ontario Numbers'!H137-'Ontario Numbers'!H136</f>
+        <v>1</v>
+      </c>
+      <c r="I135" s="8">
+        <f>'Ontario Numbers'!I137-'Ontario Numbers'!I136</f>
+        <v>24669</v>
+      </c>
+      <c r="J135" s="13"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" s="12">
+        <v>44085</v>
+      </c>
+      <c r="C136" s="8">
+        <f>'Ontario Numbers'!C138-'Ontario Numbers'!C137</f>
+        <v>213</v>
+      </c>
+      <c r="D136" s="8">
+        <f>'Ontario Numbers'!D138-'Ontario Numbers'!D137</f>
+        <v>124</v>
+      </c>
+      <c r="E136" s="8">
+        <f>'Ontario Numbers'!E138-'Ontario Numbers'!E137</f>
+        <v>-1</v>
+      </c>
+      <c r="F136" s="8">
+        <f>'Ontario Numbers'!F138-'Ontario Numbers'!F137</f>
+        <v>-5</v>
+      </c>
+      <c r="G136" s="8">
+        <f>'Ontario Numbers'!G138-'Ontario Numbers'!G137</f>
+        <v>4</v>
+      </c>
+      <c r="H136" s="8">
+        <f>'Ontario Numbers'!H138-'Ontario Numbers'!H137</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="8">
+        <f>'Ontario Numbers'!I138-'Ontario Numbers'!I137</f>
+        <v>32501</v>
+      </c>
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" s="12">
+        <v>44086</v>
+      </c>
+      <c r="C137" s="8">
+        <f>'Ontario Numbers'!C139-'Ontario Numbers'!C138</f>
+        <v>232</v>
+      </c>
+      <c r="D137" s="8">
+        <f>'Ontario Numbers'!D139-'Ontario Numbers'!D138</f>
+        <v>119</v>
+      </c>
+      <c r="E137" s="8">
+        <f>'Ontario Numbers'!E139-'Ontario Numbers'!E138</f>
+        <v>1</v>
+      </c>
+      <c r="F137" s="8">
+        <f>'Ontario Numbers'!F139-'Ontario Numbers'!F138</f>
+        <v>-6</v>
+      </c>
+      <c r="G137" s="8">
+        <f>'Ontario Numbers'!G139-'Ontario Numbers'!G138</f>
+        <v>-6</v>
+      </c>
+      <c r="H137" s="8">
+        <f>'Ontario Numbers'!H139-'Ontario Numbers'!H138</f>
+        <v>-1</v>
+      </c>
+      <c r="I137" s="8">
+        <f>'Ontario Numbers'!I139-'Ontario Numbers'!I138</f>
+        <v>35618</v>
+      </c>
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" s="12">
+        <v>44087</v>
+      </c>
+      <c r="C138" s="8">
+        <f>'Ontario Numbers'!C140-'Ontario Numbers'!C139</f>
+        <v>204</v>
+      </c>
+      <c r="D138" s="8">
+        <f>'Ontario Numbers'!D140-'Ontario Numbers'!D139</f>
+        <v>124</v>
+      </c>
+      <c r="E138" s="8">
+        <f>'Ontario Numbers'!E140-'Ontario Numbers'!E139</f>
+        <v>1</v>
+      </c>
+      <c r="F138" s="8">
+        <f>'Ontario Numbers'!F140-'Ontario Numbers'!F139</f>
+        <v>-4</v>
+      </c>
+      <c r="G138" s="8">
+        <f>'Ontario Numbers'!G140-'Ontario Numbers'!G139</f>
+        <v>2</v>
+      </c>
+      <c r="H138" s="8">
+        <f>'Ontario Numbers'!H140-'Ontario Numbers'!H139</f>
+        <v>1</v>
+      </c>
+      <c r="I138" s="8">
+        <f>'Ontario Numbers'!I140-'Ontario Numbers'!I139</f>
+        <v>31143</v>
+      </c>
+      <c r="J138" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C2 C113:C1048576">
+  <conditionalFormatting sqref="C1:C2 C113:C129 C131:C1048576">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -32353,7 +34885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D113:D1048576 D1:D2">
+  <conditionalFormatting sqref="D113:D129 D1:D2 D131:D1048576">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -32365,7 +34897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2 E113:E1048576">
+  <conditionalFormatting sqref="E1:E2 E113:E129 E131:E1048576">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -32377,7 +34909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:F1048576 F1:F2">
+  <conditionalFormatting sqref="F113:F129 F1:F2 F131:F1048576">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -32389,7 +34921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G113:G1048576 G1:G2">
+  <conditionalFormatting sqref="G113:G129 G1:G2 G131:G1048576">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -32401,7 +34933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H1048576 H1:H2">
+  <conditionalFormatting sqref="H113:H129 H1:H2 H131:H1048576">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -32413,7 +34945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H1048576 H1:H2">
+  <conditionalFormatting sqref="H113:H129 H1:H2 H131:H1048576">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -32435,7 +34967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G113:G1048576">
+  <conditionalFormatting sqref="G113:G129 G131:G1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -32447,7 +34979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:F1048576">
+  <conditionalFormatting sqref="F113:F129 F131:F1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -32459,7 +34991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E1048576">
+  <conditionalFormatting sqref="E113:E129 E131:E1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -32471,7 +35003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D113:D1048576 D1:D2">
+  <conditionalFormatting sqref="D113:D129 D1:D2 D131:D1048576">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -32483,7 +35015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C113:C1048576">
+  <conditionalFormatting sqref="C113:C129 C131:C1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -32495,7 +35027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113:I1048576 I1:I2">
+  <conditionalFormatting sqref="I113:I129 I1:I2 I131:I1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -32507,7 +35039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C26 C28:C36 C40:C48 C50:C51 C53:C58 C61:C70 C73:C74 C76:C77 C79:C101 C103:C109 C111 C113:C1048576">
+  <conditionalFormatting sqref="C1:C26 C28:C36 C40:C48 C50:C51 C53:C58 C61:C70 C73:C74 C76:C77 C79:C101 C103:C109 C111 C113:C129 C131:C1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -32519,7 +35051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D26 D28:D36 D40:D48 D50:D51 D53:D58 D61:D70 D73:D74 D76:D77 D79:D101 D103:D109 D111 D113:D1048576">
+  <conditionalFormatting sqref="D1:D26 D28:D36 D40:D48 D50:D51 D53:D58 D61:D70 D73:D74 D76:D77 D79:D101 D103:D109 D111 D113:D129 D131:D1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -32531,7 +35063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E26 E28:E36 E40:E48 E50:E51 E53:E58 E61:E70 E73:E74 E76:E77 E79:E101 E103:E109 E111 E113:E1048576">
+  <conditionalFormatting sqref="E1:E26 E28:E36 E40:E48 E50:E51 E53:E58 E61:E70 E73:E74 E76:E77 E79:E101 E103:E109 E111 E113:E129 E131:E1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -32543,7 +35075,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F26 F28:F36 F40:F48 F50:F51 F53:F58 F61:F70 F73:F74 F76:F77 F79:F101 F103:F109 F111 F113:F1048576">
+  <conditionalFormatting sqref="F1:F26 F28:F36 F40:F48 F50:F51 F53:F58 F61:F70 F73:F74 F76:F77 F79:F101 F103:F109 F111 F113:F129 F131:F1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -32555,7 +35087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G26 G28:G36 G40:G48 G50:G51 G53:G58 G61:G70 G73:G74 G76:G77 G79:G101 G103:G109 G111 G113:G1048576">
+  <conditionalFormatting sqref="G1:G26 G28:G36 G40:G48 G50:G51 G53:G58 G61:G70 G73:G74 G76:G77 G79:G101 G103:G109 G111 G113:G129 G131:G1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -32567,7 +35099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H26 H28:H36 H40:H48 H50:H51 H53:H58 H61:H70 H73:H74 H76:H77 H79:H101 H103:H109 H111 H113:H1048576">
+  <conditionalFormatting sqref="H1:H26 H28:H36 H40:H48 H50:H51 H53:H58 H61:H70 H73:H74 H76:H77 H79:H101 H103:H109 H111 H113:H129 H131:H1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -32579,7 +35111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I26 I28:I36 I40:I48 I50:I51 I53:I58 I61:I70 I73:I74 I76:I77 I79:I101 I103:I109 I111 I113:I1048576">
+  <conditionalFormatting sqref="I1:I26 I28:I36 I40:I48 I50:I51 I53:I58 I61:I70 I73:I74 I76:I77 I79:I101 I103:I109 I111 I113:I129 I131:I1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -32602,7 +35134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AEEB9B-2C10-44E9-A3AC-EEED8671C8A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
